--- a/Test suite/TestCases.xlsx
+++ b/Test suite/TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Assesment\Gmail\Gmail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Assesment\Gmail\Gmail\Test suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284AEB6-95B4-4C4B-B75B-115BCDCD8855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8230AC-3057-4F32-B3F5-C39BE33C1802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FEB9EC7D-418F-4C11-B460-38352BB5E63D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="245">
   <si>
     <t>Project Name</t>
   </si>
@@ -112,45 +112,6 @@
     <t>TC_0002</t>
   </si>
   <si>
-    <t>Click on minimize button</t>
-  </si>
-  <si>
-    <t>Verify a 'new message' tab is visible</t>
-  </si>
-  <si>
-    <t>Again click on minimise button(now changed to maximize)</t>
-  </si>
-  <si>
-    <t>verify the tab is minimized and minimize button shows changed text 'maximize' on mouseover</t>
-  </si>
-  <si>
-    <t>verify that tab gets maximized</t>
-  </si>
-  <si>
-    <t>Mouse over on minimize button</t>
-  </si>
-  <si>
-    <t>verify minimize text gets displayed</t>
-  </si>
-  <si>
-    <t>Mouse over on full screen button</t>
-  </si>
-  <si>
-    <t>verify "full screen(shift for pop-out) message is visible</t>
-  </si>
-  <si>
-    <t>click on full screen button</t>
-  </si>
-  <si>
-    <t>Mouse over on close button</t>
-  </si>
-  <si>
-    <t>verify "save and close" message is visible</t>
-  </si>
-  <si>
-    <t>click on close button</t>
-  </si>
-  <si>
     <t>The message tab is minimized and shows "maximize" message on mouseover</t>
   </si>
   <si>
@@ -190,12 +151,6 @@
     <t>User has clicked on full screen button</t>
   </si>
   <si>
-    <t>Mouse over on "exit full screen" button</t>
-  </si>
-  <si>
-    <t>verify "Exit full screen(shift for pop-out)" message is visible</t>
-  </si>
-  <si>
     <t>TS_0003</t>
   </si>
   <si>
@@ -226,33 +181,12 @@
     <t>New message frame is visible</t>
   </si>
   <si>
-    <t>verify frame gets full screen and button changes to "Exit full screen(shift for pop-out)"</t>
-  </si>
-  <si>
     <t>The tab exits full screen successfully and small frame is visible</t>
   </si>
   <si>
-    <t>verify frame gets exits full screen and button changes to "full screen(shift for pop-out)"</t>
-  </si>
-  <si>
-    <t>verify new message frame is closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">When user holds shift key and clicks on 'full screen' button a new browser window of new message appears </t>
   </si>
   <si>
-    <t>Click on compose button</t>
-  </si>
-  <si>
-    <t>Hold shift key and click of 'full screen' button</t>
-  </si>
-  <si>
-    <t>Verify that new browser window for new message is visible</t>
-  </si>
-  <si>
-    <t>close window</t>
-  </si>
-  <si>
     <t>User is able to see new browser window for 'new message'</t>
   </si>
   <si>
@@ -265,24 +199,6 @@
     <t>To verify that user is able to enter email ids in " To, Cc, and Bcc" sections and also suggestions are available as per user contact or email history</t>
   </si>
   <si>
-    <t>Enter email address</t>
-  </si>
-  <si>
-    <t>Click on Cc</t>
-  </si>
-  <si>
-    <t>check that user is able to enter email id and relevant suggestions are visible next to 'To' section</t>
-  </si>
-  <si>
-    <t>check that user is able to enter email id and relevant suggestions are visible next to 'Cc' section</t>
-  </si>
-  <si>
-    <t>Click on Bcc</t>
-  </si>
-  <si>
-    <t>check that user is able to enter email id and relevant suggestions are visible next to 'Bcc' section</t>
-  </si>
-  <si>
     <t>Close frame</t>
   </si>
   <si>
@@ -304,12 +220,6 @@
     <t>TC_0009</t>
   </si>
   <si>
-    <t>Enter email address and press enter once suggestion is available</t>
-  </si>
-  <si>
-    <t>Enter second email address and press enter once suggestion is available</t>
-  </si>
-  <si>
     <t>example1@gmail.com</t>
   </si>
   <si>
@@ -343,15 +253,6 @@
     <t>TC_0010</t>
   </si>
   <si>
-    <t xml:space="preserve">click on "Subject" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter subject in Subject keybox </t>
-  </si>
-  <si>
-    <t>verify user  is able to enter subject</t>
-  </si>
-  <si>
     <t>Incubyte 23 $#!</t>
   </si>
   <si>
@@ -367,15 +268,6 @@
     <t>Select text using mouse</t>
   </si>
   <si>
-    <t>click on Bold button</t>
-  </si>
-  <si>
-    <t>confirm the text has been formated as bold</t>
-  </si>
-  <si>
-    <t>again click on bold</t>
-  </si>
-  <si>
     <t>confirm that text is returned to normal</t>
   </si>
   <si>
@@ -394,12 +286,6 @@
     <t>To verify user can type in mail body and make it  Italic and reverse it using  editor options</t>
   </si>
   <si>
-    <t>click on Italic button</t>
-  </si>
-  <si>
-    <t>confirm the text has been formated as Italic</t>
-  </si>
-  <si>
     <t>text: make me Italic</t>
   </si>
   <si>
@@ -424,9 +310,6 @@
     <t>again click on underline button</t>
   </si>
   <si>
-    <t>again click on Italic button</t>
-  </si>
-  <si>
     <t>text: make me underlined</t>
   </si>
   <si>
@@ -731,6 +614,162 @@
   </si>
   <si>
     <t>verify the email is present in draft</t>
+  </si>
+  <si>
+    <t>TS_0026</t>
+  </si>
+  <si>
+    <t>To verify mail is sent successfully to intended non-gmail recipients</t>
+  </si>
+  <si>
+    <t>TC_0026</t>
+  </si>
+  <si>
+    <t>Enter non- gmail email id</t>
+  </si>
+  <si>
+    <t>Then validate  'new message' tab is visible</t>
+  </si>
+  <si>
+    <t>When user Click on Compose button</t>
+  </si>
+  <si>
+    <t>When user Mouse over on minimize button</t>
+  </si>
+  <si>
+    <t>When user verify minimize text gets displayed</t>
+  </si>
+  <si>
+    <t>When user Click on minimize button</t>
+  </si>
+  <si>
+    <t>Then user Validate the tab is minimized and minimize button shows changed text 'maximize' on mouseover</t>
+  </si>
+  <si>
+    <t>When user Again click on minimise button(now changed to maximize)</t>
+  </si>
+  <si>
+    <t>Then user verify that tab gets maximized</t>
+  </si>
+  <si>
+    <t>When user Mouse over on full screen button</t>
+  </si>
+  <si>
+    <t>When user verify "full screen(shift for pop-out) message is visible</t>
+  </si>
+  <si>
+    <t>When user click on full screen button</t>
+  </si>
+  <si>
+    <t>Then user verify frame gets full screen and button changes to "Exit full screen(shift for pop-out)"</t>
+  </si>
+  <si>
+    <t>When user Mouse over on "exit full screen" button</t>
+  </si>
+  <si>
+    <t>When user verify "Exit full screen(shift for pop-out)" message is visible</t>
+  </si>
+  <si>
+    <t>Then user verify frame gets exits full screen and button changes to "full screen(shift for pop-out)"</t>
+  </si>
+  <si>
+    <t>When user Mouse over on close button</t>
+  </si>
+  <si>
+    <t>When user verify "save and close" message is visible</t>
+  </si>
+  <si>
+    <t>When user click on close button</t>
+  </si>
+  <si>
+    <t>Then user verify new message frame is closed</t>
+  </si>
+  <si>
+    <t>When user Click on compose button</t>
+  </si>
+  <si>
+    <t>When user Hold shift key and click of 'full screen' button</t>
+  </si>
+  <si>
+    <t>Then user Verify that new browser window for new message is visible</t>
+  </si>
+  <si>
+    <t>When user close window</t>
+  </si>
+  <si>
+    <t>When user click on 'To' section</t>
+  </si>
+  <si>
+    <t>When user Enter email address</t>
+  </si>
+  <si>
+    <t>Then user check that user is able to enter email id and relevant suggestions are visible next to 'To' section</t>
+  </si>
+  <si>
+    <t>When user Click on Cc</t>
+  </si>
+  <si>
+    <t>When user Click on Bcc</t>
+  </si>
+  <si>
+    <t>Then user check that user is able to enter email id and relevant suggestions are visible next to 'Cc' section</t>
+  </si>
+  <si>
+    <t>When user Close frame</t>
+  </si>
+  <si>
+    <t>Then user check that user is able to enter email id and relevant suggestions are visible next to 'Bcc' section</t>
+  </si>
+  <si>
+    <t>When user Enter email address and press enter once suggestion is available</t>
+  </si>
+  <si>
+    <t>When user Enter second email address and press enter once suggestion is available</t>
+  </si>
+  <si>
+    <t>Then user validate that all email addresses entered are visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user click on "Subject" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user Enter subject in Subject keybox </t>
+  </si>
+  <si>
+    <t>Then user verify user  is able to enter subject</t>
+  </si>
+  <si>
+    <t>When user Click on mail body</t>
+  </si>
+  <si>
+    <t>When user Type text</t>
+  </si>
+  <si>
+    <t>When user Select text using mouse</t>
+  </si>
+  <si>
+    <t>When user click on Bold button</t>
+  </si>
+  <si>
+    <t>Then user confirm the text has been formated as bold</t>
+  </si>
+  <si>
+    <t>When user again click on bold</t>
+  </si>
+  <si>
+    <t>Then user confirm that text is returned to normal</t>
+  </si>
+  <si>
+    <t>When user click on Italic button</t>
+  </si>
+  <si>
+    <t>Then user confirm the text has been formated as Italic</t>
+  </si>
+  <si>
+    <t>When user again click on Italic button</t>
+  </si>
+  <si>
+    <t>When user confirm that text is returned to normal</t>
   </si>
 </sst>
 </file>
@@ -903,9 +942,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,6 +951,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,17 +976,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -948,12 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -963,16 +1012,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1288,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7FDCB6-9A4D-47E9-8727-FF4A46E268E6}">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+    <sheetView tabSelected="1" topLeftCell="C64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1384,20 +1423,20 @@
         <v>13</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -1407,823 +1446,823 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24" t="s">
-        <v>116</v>
+        <v>198</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="21"/>
       <c r="D10" s="23"/>
       <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="38"/>
+        <v>197</v>
+      </c>
+      <c r="F10" s="42"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="G11" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="3" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="3" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="36"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>47</v>
+      <c r="A16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="G16" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="36"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>62</v>
+      <c r="A18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="G18" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="16" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="16" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="16" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="16" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="16" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="16" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>62</v>
+      <c r="A26" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="G26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="16" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="16" t="s">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="16" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="28" t="s">
+      <c r="A30" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="G30" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="25"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="16" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="16" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="16" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>75</v>
+        <v>51</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="G34" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="16" t="s">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="21"/>
-      <c r="B36" s="40"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="16" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G36" s="35"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="21"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="16" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="21"/>
-      <c r="B38" s="40"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="16" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="21"/>
-      <c r="B39" s="40"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="16" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G39" s="35"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="21"/>
-      <c r="B40" s="40"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="16" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="21"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
       <c r="E41" s="16" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="21"/>
-      <c r="B42" s="40"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="16" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G42" s="35"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="21"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
       <c r="E43" s="16" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="21"/>
-      <c r="B44" s="40"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="16" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="36"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>87</v>
+        <v>64</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+        <v>198</v>
+      </c>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="21"/>
-      <c r="B46" s="40"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
       <c r="E46" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
+        <v>220</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="21"/>
-      <c r="B47" s="40"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="21"/>
       <c r="D47" s="23"/>
       <c r="E47" s="16" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="21"/>
-      <c r="B48" s="40"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="21"/>
       <c r="D48" s="23"/>
       <c r="E48" s="17" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="21"/>
-      <c r="B49" s="40"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="21"/>
       <c r="D49" s="23"/>
       <c r="E49" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
+        <v>223</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="21"/>
-      <c r="B50" s="40"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="21"/>
       <c r="D50" s="23"/>
       <c r="E50" s="16" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
+        <v>68</v>
+      </c>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="21"/>
-      <c r="B51" s="40"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="21"/>
       <c r="D51" s="23"/>
       <c r="E51" s="17" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="21"/>
-      <c r="B52" s="40"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="21"/>
       <c r="D52" s="23"/>
       <c r="E52" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+        <v>224</v>
+      </c>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="21"/>
-      <c r="B53" s="40"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="21"/>
       <c r="D53" s="23"/>
       <c r="E53" s="16" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="21"/>
-      <c r="B54" s="40"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="21"/>
       <c r="D54" s="23"/>
       <c r="E54" s="17" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="21"/>
-      <c r="B55" s="40"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="21"/>
       <c r="D55" s="23"/>
       <c r="E55" s="16" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="F55" s="12"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
     </row>
     <row r="56" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F56" s="12"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
     </row>
@@ -2233,14 +2272,14 @@
       <c r="C57" s="21"/>
       <c r="D57" s="23"/>
       <c r="E57" s="16" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
+        <v>72</v>
+      </c>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
     </row>
@@ -2250,12 +2289,12 @@
       <c r="C58" s="21"/>
       <c r="D58" s="23"/>
       <c r="E58" s="16" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="F58" s="12"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
     </row>
@@ -2265,284 +2304,284 @@
       <c r="C59" s="21"/>
       <c r="D59" s="23"/>
       <c r="E59" s="16" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="F59" s="12"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="24" t="s">
-        <v>106</v>
+      <c r="A60" s="28" t="s">
+        <v>73</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F60" s="12"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="25"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
       <c r="D61" s="23"/>
       <c r="E61" s="3" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="F61" s="12"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="25"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
       <c r="D62" s="23"/>
       <c r="E62" s="3" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
+        <v>79</v>
+      </c>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="25"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
       <c r="D63" s="23"/>
       <c r="E63" s="3" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="F63" s="12"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="25"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
       <c r="D64" s="23"/>
       <c r="E64" s="3" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="F64" s="12"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="25"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
       <c r="D65" s="23"/>
       <c r="E65" s="3" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="F65" s="12"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="25"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
       <c r="D66" s="23"/>
       <c r="E66" s="3" t="s">
-        <v>112</v>
+        <v>239</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="26"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
       <c r="D67" s="23"/>
       <c r="E67" s="3" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="24" t="s">
-        <v>117</v>
+      <c r="A68" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="D68" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F68" s="12"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="25"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
       <c r="D69" s="23"/>
       <c r="E69" s="3" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="F69" s="12"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="25"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
       <c r="D70" s="23"/>
       <c r="E70" s="3" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
+        <v>83</v>
+      </c>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="25"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
       <c r="D71" s="23"/>
       <c r="E71" s="3" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="F71" s="12"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="25"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
       <c r="D72" s="23"/>
       <c r="E72" s="3" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="F72" s="12"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="25"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
       <c r="D73" s="23"/>
       <c r="E73" s="3" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="F73" s="12"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="25"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
       <c r="D74" s="23"/>
       <c r="E74" s="3" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="F74" s="12"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="26"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
       <c r="D75" s="23"/>
       <c r="E75" s="3" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="24" t="s">
-        <v>122</v>
+      <c r="A76" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="D76" s="23" t="s">
         <v>23</v>
@@ -2551,128 +2590,128 @@
         <v>19</v>
       </c>
       <c r="F76" s="12"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="25"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
       <c r="D77" s="23"/>
       <c r="E77" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F77" s="12"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="25"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
       <c r="D78" s="23"/>
       <c r="E78" s="3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
+        <v>91</v>
+      </c>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="25"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
       <c r="D79" s="23"/>
       <c r="E79" s="3" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F79" s="12"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="25"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
       <c r="D80" s="23"/>
       <c r="E80" s="3" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="F80" s="12"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="25"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
       <c r="D81" s="23"/>
       <c r="E81" s="3" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="25"/>
+      <c r="A82" s="29"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
       <c r="D82" s="23"/>
       <c r="E82" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="F82" s="12"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="26"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
       <c r="D83" s="23"/>
       <c r="E83" s="3" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="F83" s="12"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="24" t="s">
-        <v>123</v>
+      <c r="A84" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>23</v>
@@ -2681,128 +2720,128 @@
         <v>19</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="25"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
       <c r="D85" s="23"/>
       <c r="E85" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="25"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
       <c r="D86" s="23"/>
       <c r="E86" s="3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
+        <v>83</v>
+      </c>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="25"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
       <c r="D87" s="23"/>
       <c r="E87" s="3" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="25"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
       <c r="D88" s="23"/>
       <c r="E88" s="3" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="25"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
       <c r="D89" s="23"/>
       <c r="E89" s="3" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="25"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
       <c r="D90" s="23"/>
       <c r="E90" s="3" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="26"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
       <c r="D91" s="23"/>
       <c r="E91" s="3" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="F91" s="12"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
     </row>
     <row r="92" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="21" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>23</v>
@@ -2823,7 +2862,7 @@
       <c r="C93" s="21"/>
       <c r="D93" s="23"/>
       <c r="E93" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="21"/>
@@ -2838,10 +2877,10 @@
       <c r="C94" s="21"/>
       <c r="D94" s="23"/>
       <c r="E94" s="3" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
@@ -2855,7 +2894,7 @@
       <c r="C95" s="21"/>
       <c r="D95" s="23"/>
       <c r="E95" s="3" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="21"/>
@@ -2870,7 +2909,7 @@
       <c r="C96" s="21"/>
       <c r="D96" s="23"/>
       <c r="E96" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="21"/>
@@ -2885,7 +2924,7 @@
       <c r="C97" s="21"/>
       <c r="D97" s="23"/>
       <c r="E97" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="21"/>
@@ -2900,7 +2939,7 @@
       <c r="C98" s="21"/>
       <c r="D98" s="23"/>
       <c r="E98" s="3" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="21"/>
@@ -2915,7 +2954,7 @@
       <c r="C99" s="21"/>
       <c r="D99" s="23"/>
       <c r="E99" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="21"/>
@@ -2930,12 +2969,12 @@
       <c r="C100" s="21"/>
       <c r="D100" s="23"/>
       <c r="E100" s="3" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="F100" s="12"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
     </row>
@@ -2945,12 +2984,12 @@
       <c r="C101" s="21"/>
       <c r="D101" s="23"/>
       <c r="E101" s="3" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="F101" s="12"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
     </row>
@@ -2960,12 +2999,12 @@
       <c r="C102" s="21"/>
       <c r="D102" s="23"/>
       <c r="E102" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="F102" s="12"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="30"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
     </row>
@@ -2975,122 +3014,122 @@
       <c r="C103" s="21"/>
       <c r="D103" s="23"/>
       <c r="E103" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="F103" s="12"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
     </row>
     <row r="104" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D104" s="28" t="s">
+      <c r="A104" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F104" s="12"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="25"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="25"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="29"/>
       <c r="D105" s="35"/>
       <c r="E105" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F105" s="12"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" s="25"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="25"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="29"/>
       <c r="D106" s="35"/>
       <c r="E106" s="3" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="F106" s="12"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="25"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="25"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="29"/>
       <c r="D107" s="35"/>
       <c r="E107" s="3" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="F107" s="12"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" s="25"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="25"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="29"/>
       <c r="D108" s="35"/>
       <c r="E108" s="3" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="F108" s="12"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="26"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="26"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="30"/>
       <c r="D109" s="36"/>
       <c r="E109" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F109" s="12"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
     </row>
     <row r="110" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="21" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="D110" s="23" t="s">
         <v>23</v>
@@ -3099,9 +3138,9 @@
         <v>19</v>
       </c>
       <c r="F110" s="12"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
     </row>
@@ -3111,12 +3150,12 @@
       <c r="C111" s="21"/>
       <c r="D111" s="23"/>
       <c r="E111" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F111" s="12"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
     </row>
@@ -3126,12 +3165,12 @@
       <c r="C112" s="21"/>
       <c r="D112" s="23"/>
       <c r="E112" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F112" s="12"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
     </row>
@@ -3141,12 +3180,12 @@
       <c r="C113" s="21"/>
       <c r="D113" s="23"/>
       <c r="E113" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F113" s="12"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
     </row>
@@ -3156,12 +3195,12 @@
       <c r="C114" s="21"/>
       <c r="D114" s="23"/>
       <c r="E114" s="3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F114" s="12"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
     </row>
@@ -3171,12 +3210,12 @@
       <c r="C115" s="21"/>
       <c r="D115" s="23"/>
       <c r="E115" s="3" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="F115" s="12"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
     </row>
@@ -3186,12 +3225,12 @@
       <c r="C116" s="21"/>
       <c r="D116" s="23"/>
       <c r="E116" s="3" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="F116" s="12"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
     </row>
@@ -3201,12 +3240,12 @@
       <c r="C117" s="21"/>
       <c r="D117" s="23"/>
       <c r="E117" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
     </row>
@@ -3216,12 +3255,12 @@
       <c r="C118" s="21"/>
       <c r="D118" s="23"/>
       <c r="E118" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F118" s="12"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
     </row>
@@ -3231,24 +3270,24 @@
       <c r="C119" s="21"/>
       <c r="D119" s="23"/>
       <c r="E119" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="F119" s="12"/>
-      <c r="G119" s="26"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="26"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="21" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>23</v>
@@ -3257,9 +3296,9 @@
         <v>19</v>
       </c>
       <c r="F120" s="12"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
     </row>
@@ -3269,12 +3308,12 @@
       <c r="C121" s="21"/>
       <c r="D121" s="23"/>
       <c r="E121" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F121" s="12"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
     </row>
@@ -3284,12 +3323,12 @@
       <c r="C122" s="21"/>
       <c r="D122" s="23"/>
       <c r="E122" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F122" s="12"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
     </row>
@@ -3299,12 +3338,12 @@
       <c r="C123" s="21"/>
       <c r="D123" s="23"/>
       <c r="E123" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F123" s="12"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
     </row>
@@ -3314,12 +3353,12 @@
       <c r="C124" s="21"/>
       <c r="D124" s="23"/>
       <c r="E124" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F124" s="12"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
     </row>
@@ -3329,12 +3368,12 @@
       <c r="C125" s="21"/>
       <c r="D125" s="23"/>
       <c r="E125" s="3" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="F125" s="12"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
     </row>
@@ -3344,12 +3383,12 @@
       <c r="C126" s="21"/>
       <c r="D126" s="23"/>
       <c r="E126" s="3" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="F126" s="12"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
     </row>
@@ -3359,12 +3398,12 @@
       <c r="C127" s="21"/>
       <c r="D127" s="23"/>
       <c r="E127" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F127" s="12"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
-      <c r="I127" s="25"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
     </row>
@@ -3374,12 +3413,12 @@
       <c r="C128" s="21"/>
       <c r="D128" s="23"/>
       <c r="E128" s="3" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="F128" s="12"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
     </row>
@@ -3389,24 +3428,24 @@
       <c r="C129" s="21"/>
       <c r="D129" s="23"/>
       <c r="E129" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="21" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="D130" s="23" t="s">
         <v>23</v>
@@ -3415,9 +3454,9 @@
         <v>19</v>
       </c>
       <c r="F130" s="12"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
       <c r="J130" s="12"/>
       <c r="K130" s="12"/>
     </row>
@@ -3427,12 +3466,12 @@
       <c r="C131" s="21"/>
       <c r="D131" s="23"/>
       <c r="E131" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F131" s="12"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
     </row>
@@ -3442,12 +3481,12 @@
       <c r="C132" s="21"/>
       <c r="D132" s="23"/>
       <c r="E132" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F132" s="12"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
     </row>
@@ -3457,12 +3496,12 @@
       <c r="C133" s="21"/>
       <c r="D133" s="23"/>
       <c r="E133" s="3" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="F133" s="12"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
       <c r="J133" s="12"/>
       <c r="K133" s="12"/>
     </row>
@@ -3472,12 +3511,12 @@
       <c r="C134" s="21"/>
       <c r="D134" s="23"/>
       <c r="E134" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
       <c r="J134" s="12"/>
       <c r="K134" s="12"/>
     </row>
@@ -3487,12 +3526,12 @@
       <c r="C135" s="21"/>
       <c r="D135" s="23"/>
       <c r="E135" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
       <c r="J135" s="12"/>
       <c r="K135" s="12"/>
     </row>
@@ -3502,39 +3541,39 @@
       <c r="C136" s="21"/>
       <c r="D136" s="23"/>
       <c r="E136" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
       <c r="J136" s="12"/>
       <c r="K136" s="12"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A137" s="24"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="28"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="34"/>
       <c r="E137" s="18" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="F137" s="19"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
       <c r="J137" s="19"/>
       <c r="K137" s="19"/>
     </row>
     <row r="138" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="21" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>23</v>
@@ -3544,8 +3583,8 @@
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="21"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
       <c r="J138" s="12"/>
       <c r="K138" s="12"/>
     </row>
@@ -3555,12 +3594,12 @@
       <c r="C139" s="21"/>
       <c r="D139" s="23"/>
       <c r="E139" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="21"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
       <c r="J139" s="12"/>
       <c r="K139" s="12"/>
     </row>
@@ -3570,12 +3609,12 @@
       <c r="C140" s="21"/>
       <c r="D140" s="23"/>
       <c r="E140" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="21"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
     </row>
@@ -3585,12 +3624,12 @@
       <c r="C141" s="21"/>
       <c r="D141" s="23"/>
       <c r="E141" s="3" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="21"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
       <c r="J141" s="12"/>
       <c r="K141" s="12"/>
     </row>
@@ -3600,12 +3639,12 @@
       <c r="C142" s="21"/>
       <c r="D142" s="23"/>
       <c r="E142" s="3" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="21"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
     </row>
@@ -3615,12 +3654,12 @@
       <c r="C143" s="21"/>
       <c r="D143" s="23"/>
       <c r="E143" s="3" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="21"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
     </row>
@@ -3630,12 +3669,12 @@
       <c r="C144" s="21"/>
       <c r="D144" s="23"/>
       <c r="E144" s="3" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="21"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
       <c r="J144" s="12"/>
       <c r="K144" s="12"/>
     </row>
@@ -3645,12 +3684,12 @@
       <c r="C145" s="21"/>
       <c r="D145" s="23"/>
       <c r="E145" s="3" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="21"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
       <c r="J145" s="12"/>
       <c r="K145" s="12"/>
     </row>
@@ -3660,12 +3699,12 @@
       <c r="C146" s="21"/>
       <c r="D146" s="23"/>
       <c r="E146" s="3" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="21"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12"/>
     </row>
@@ -3675,24 +3714,24 @@
       <c r="C147" s="21"/>
       <c r="D147" s="23"/>
       <c r="E147" s="3" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="21"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
       <c r="J147" s="12"/>
       <c r="K147" s="12"/>
     </row>
     <row r="148" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="21" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>23</v>
@@ -3700,10 +3739,10 @@
       <c r="E148" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F148" s="20"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
       <c r="J148" s="12"/>
       <c r="K148" s="12"/>
     </row>
@@ -3713,12 +3752,12 @@
       <c r="C149" s="21"/>
       <c r="D149" s="23"/>
       <c r="E149" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
       <c r="J149" s="12"/>
       <c r="K149" s="12"/>
     </row>
@@ -3728,12 +3767,12 @@
       <c r="C150" s="21"/>
       <c r="D150" s="23"/>
       <c r="E150" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
+        <v>151</v>
+      </c>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
       <c r="J150" s="12"/>
       <c r="K150" s="12"/>
     </row>
@@ -3743,12 +3782,12 @@
       <c r="C151" s="21"/>
       <c r="D151" s="23"/>
       <c r="E151" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
     </row>
@@ -3758,12 +3797,12 @@
       <c r="C152" s="21"/>
       <c r="D152" s="23"/>
       <c r="E152" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
+        <v>152</v>
+      </c>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
       <c r="J152" s="12"/>
       <c r="K152" s="12"/>
     </row>
@@ -3773,12 +3812,12 @@
       <c r="C153" s="21"/>
       <c r="D153" s="23"/>
       <c r="E153" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
       <c r="J153" s="12"/>
       <c r="K153" s="12"/>
     </row>
@@ -3788,12 +3827,12 @@
       <c r="C154" s="21"/>
       <c r="D154" s="23"/>
       <c r="E154" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
+        <v>153</v>
+      </c>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
       <c r="J154" s="12"/>
       <c r="K154" s="12"/>
     </row>
@@ -3803,12 +3842,12 @@
       <c r="C155" s="21"/>
       <c r="D155" s="23"/>
       <c r="E155" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
       <c r="J155" s="12"/>
       <c r="K155" s="12"/>
     </row>
@@ -3818,12 +3857,12 @@
       <c r="C156" s="21"/>
       <c r="D156" s="23"/>
       <c r="E156" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
+        <v>154</v>
+      </c>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
       <c r="J156" s="12"/>
       <c r="K156" s="12"/>
     </row>
@@ -3833,12 +3872,12 @@
       <c r="C157" s="21"/>
       <c r="D157" s="23"/>
       <c r="E157" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
       <c r="J157" s="12"/>
       <c r="K157" s="12"/>
     </row>
@@ -3848,12 +3887,12 @@
       <c r="C158" s="21"/>
       <c r="D158" s="23"/>
       <c r="E158" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
       <c r="J158" s="12"/>
       <c r="K158" s="12"/>
     </row>
@@ -3863,24 +3902,24 @@
       <c r="C159" s="21"/>
       <c r="D159" s="23"/>
       <c r="E159" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
       <c r="J159" s="12"/>
       <c r="K159" s="12"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="21" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="D160" s="23" t="s">
         <v>23</v>
@@ -3888,10 +3927,10 @@
       <c r="E160" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="20"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
       <c r="J160" s="12"/>
       <c r="K160" s="12"/>
     </row>
@@ -3901,12 +3940,12 @@
       <c r="C161" s="21"/>
       <c r="D161" s="23"/>
       <c r="E161" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
       <c r="J161" s="12"/>
       <c r="K161" s="12"/>
     </row>
@@ -3916,12 +3955,12 @@
       <c r="C162" s="21"/>
       <c r="D162" s="23"/>
       <c r="E162" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="20"/>
+        <v>163</v>
+      </c>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
       <c r="J162" s="12"/>
       <c r="K162" s="12"/>
     </row>
@@ -3931,12 +3970,12 @@
       <c r="C163" s="21"/>
       <c r="D163" s="23"/>
       <c r="E163" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
+        <v>160</v>
+      </c>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
       <c r="J163" s="12"/>
       <c r="K163" s="12"/>
     </row>
@@ -3946,12 +3985,12 @@
       <c r="C164" s="21"/>
       <c r="D164" s="23"/>
       <c r="E164" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="20"/>
+        <v>161</v>
+      </c>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
       <c r="J164" s="12"/>
       <c r="K164" s="12"/>
     </row>
@@ -3961,12 +4000,12 @@
       <c r="C165" s="21"/>
       <c r="D165" s="23"/>
       <c r="E165" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
       <c r="J165" s="12"/>
       <c r="K165" s="12"/>
     </row>
@@ -3976,12 +4015,12 @@
       <c r="C166" s="21"/>
       <c r="D166" s="23"/>
       <c r="E166" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="20"/>
+        <v>161</v>
+      </c>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
       <c r="J166" s="12"/>
       <c r="K166" s="12"/>
     </row>
@@ -3991,12 +4030,12 @@
       <c r="C167" s="21"/>
       <c r="D167" s="23"/>
       <c r="E167" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="20"/>
+        <v>162</v>
+      </c>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
       <c r="J167" s="12"/>
       <c r="K167" s="12"/>
     </row>
@@ -4006,12 +4045,12 @@
       <c r="C168" s="21"/>
       <c r="D168" s="23"/>
       <c r="E168" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
+        <v>164</v>
+      </c>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
       <c r="J168" s="12"/>
       <c r="K168" s="12"/>
     </row>
@@ -4021,24 +4060,24 @@
       <c r="C169" s="21"/>
       <c r="D169" s="23"/>
       <c r="E169" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
       <c r="J169" s="12"/>
       <c r="K169" s="12"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="21" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="D170" s="23" t="s">
         <v>23</v>
@@ -4046,10 +4085,10 @@
       <c r="E170" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="20"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
       <c r="J170" s="12"/>
       <c r="K170" s="12"/>
     </row>
@@ -4059,12 +4098,12 @@
       <c r="C171" s="21"/>
       <c r="D171" s="23"/>
       <c r="E171" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
       <c r="J171" s="12"/>
       <c r="K171" s="12"/>
     </row>
@@ -4074,12 +4113,12 @@
       <c r="C172" s="21"/>
       <c r="D172" s="23"/>
       <c r="E172" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20"/>
-      <c r="I172" s="20"/>
+        <v>159</v>
+      </c>
+      <c r="F172" s="27"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
       <c r="J172" s="12"/>
       <c r="K172" s="12"/>
     </row>
@@ -4089,12 +4128,12 @@
       <c r="C173" s="21"/>
       <c r="D173" s="23"/>
       <c r="E173" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="20"/>
+        <v>167</v>
+      </c>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
       <c r="J173" s="12"/>
       <c r="K173" s="12"/>
     </row>
@@ -4104,12 +4143,12 @@
       <c r="C174" s="21"/>
       <c r="D174" s="23"/>
       <c r="E174" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F174" s="20"/>
-      <c r="G174" s="20"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="20"/>
+        <v>168</v>
+      </c>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
       <c r="J174" s="12"/>
       <c r="K174" s="12"/>
     </row>
@@ -4119,12 +4158,12 @@
       <c r="C175" s="21"/>
       <c r="D175" s="23"/>
       <c r="E175" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F175" s="20"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="20"/>
-      <c r="I175" s="20"/>
+        <v>169</v>
+      </c>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
       <c r="J175" s="12"/>
       <c r="K175" s="12"/>
     </row>
@@ -4134,12 +4173,12 @@
       <c r="C176" s="21"/>
       <c r="D176" s="23"/>
       <c r="E176" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
       <c r="J176" s="12"/>
       <c r="K176" s="12"/>
     </row>
@@ -4149,12 +4188,12 @@
       <c r="C177" s="21"/>
       <c r="D177" s="23"/>
       <c r="E177" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F177" s="20"/>
-      <c r="G177" s="20"/>
-      <c r="H177" s="20"/>
-      <c r="I177" s="20"/>
+        <v>171</v>
+      </c>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
       <c r="J177" s="12"/>
       <c r="K177" s="12"/>
     </row>
@@ -4164,12 +4203,12 @@
       <c r="C178" s="21"/>
       <c r="D178" s="23"/>
       <c r="E178" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
+        <v>172</v>
+      </c>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
       <c r="J178" s="12"/>
       <c r="K178" s="12"/>
     </row>
@@ -4179,24 +4218,24 @@
       <c r="C179" s="21"/>
       <c r="D179" s="23"/>
       <c r="E179" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F179" s="20"/>
-      <c r="G179" s="20"/>
-      <c r="H179" s="20"/>
-      <c r="I179" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
       <c r="J179" s="12"/>
       <c r="K179" s="12"/>
     </row>
     <row r="180" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="21" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="D180" s="23" t="s">
         <v>23</v>
@@ -4204,10 +4243,10 @@
       <c r="E180" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
       <c r="J180" s="12"/>
       <c r="K180" s="12"/>
     </row>
@@ -4217,12 +4256,12 @@
       <c r="C181" s="21"/>
       <c r="D181" s="23"/>
       <c r="E181" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F181" s="20"/>
-      <c r="G181" s="20"/>
-      <c r="H181" s="20"/>
-      <c r="I181" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
       <c r="J181" s="12"/>
       <c r="K181" s="12"/>
     </row>
@@ -4232,12 +4271,12 @@
       <c r="C182" s="21"/>
       <c r="D182" s="23"/>
       <c r="E182" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F182" s="20"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="20"/>
-      <c r="I182" s="20"/>
+        <v>176</v>
+      </c>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
       <c r="J182" s="12"/>
       <c r="K182" s="12"/>
     </row>
@@ -4247,12 +4286,12 @@
       <c r="C183" s="21"/>
       <c r="D183" s="23"/>
       <c r="E183" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F183" s="20"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="20"/>
-      <c r="I183" s="20"/>
+        <v>177</v>
+      </c>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
       <c r="J183" s="12"/>
       <c r="K183" s="12"/>
     </row>
@@ -4262,12 +4301,12 @@
       <c r="C184" s="21"/>
       <c r="D184" s="23"/>
       <c r="E184" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F184" s="20"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
+        <v>176</v>
+      </c>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
       <c r="J184" s="12"/>
       <c r="K184" s="12"/>
     </row>
@@ -4277,12 +4316,12 @@
       <c r="C185" s="21"/>
       <c r="D185" s="23"/>
       <c r="E185" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F185" s="20"/>
-      <c r="G185" s="20"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="20"/>
+        <v>178</v>
+      </c>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
       <c r="J185" s="12"/>
       <c r="K185" s="12"/>
     </row>
@@ -4292,12 +4331,12 @@
       <c r="C186" s="21"/>
       <c r="D186" s="23"/>
       <c r="E186" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F186" s="20"/>
-      <c r="G186" s="20"/>
-      <c r="H186" s="20"/>
-      <c r="I186" s="20"/>
+        <v>176</v>
+      </c>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
       <c r="J186" s="12"/>
       <c r="K186" s="12"/>
     </row>
@@ -4307,12 +4346,12 @@
       <c r="C187" s="21"/>
       <c r="D187" s="23"/>
       <c r="E187" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F187" s="20"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="20"/>
+        <v>179</v>
+      </c>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
       <c r="J187" s="12"/>
       <c r="K187" s="12"/>
     </row>
@@ -4322,12 +4361,12 @@
       <c r="C188" s="21"/>
       <c r="D188" s="23"/>
       <c r="E188" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F188" s="20"/>
-      <c r="G188" s="20"/>
-      <c r="H188" s="20"/>
-      <c r="I188" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
       <c r="J188" s="12"/>
       <c r="K188" s="12"/>
     </row>
@@ -4337,12 +4376,12 @@
       <c r="C189" s="21"/>
       <c r="D189" s="23"/>
       <c r="E189" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F189" s="20"/>
-      <c r="G189" s="20"/>
-      <c r="H189" s="20"/>
-      <c r="I189" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
       <c r="J189" s="12"/>
       <c r="K189" s="12"/>
     </row>
@@ -4352,12 +4391,12 @@
       <c r="C190" s="21"/>
       <c r="D190" s="23"/>
       <c r="E190" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F190" s="20"/>
-      <c r="G190" s="20"/>
-      <c r="H190" s="20"/>
-      <c r="I190" s="20"/>
+        <v>183</v>
+      </c>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
       <c r="J190" s="12"/>
       <c r="K190" s="12"/>
     </row>
@@ -4367,12 +4406,12 @@
       <c r="C191" s="21"/>
       <c r="D191" s="23"/>
       <c r="E191" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F191" s="20"/>
-      <c r="G191" s="20"/>
-      <c r="H191" s="20"/>
-      <c r="I191" s="20"/>
+        <v>184</v>
+      </c>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
       <c r="J191" s="12"/>
       <c r="K191" s="12"/>
     </row>
@@ -4382,12 +4421,12 @@
       <c r="C192" s="21"/>
       <c r="D192" s="23"/>
       <c r="E192" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F192" s="20"/>
-      <c r="G192" s="20"/>
-      <c r="H192" s="20"/>
-      <c r="I192" s="20"/>
+        <v>185</v>
+      </c>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
       <c r="J192" s="12"/>
       <c r="K192" s="12"/>
     </row>
@@ -4397,24 +4436,24 @@
       <c r="C193" s="21"/>
       <c r="D193" s="23"/>
       <c r="E193" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="20"/>
-      <c r="I193" s="20"/>
+        <v>186</v>
+      </c>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
       <c r="J193" s="12"/>
       <c r="K193" s="12"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="21" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="D194" s="23" t="s">
         <v>23</v>
@@ -4422,12 +4461,12 @@
       <c r="E194" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F194" s="29"/>
-      <c r="G194" s="29"/>
-      <c r="H194" s="29"/>
-      <c r="I194" s="29"/>
-      <c r="J194" s="43"/>
-      <c r="K194" s="43"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="24"/>
+      <c r="H194" s="24"/>
+      <c r="I194" s="24"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="20"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="21"/>
@@ -4435,14 +4474,14 @@
       <c r="C195" s="21"/>
       <c r="D195" s="23"/>
       <c r="E195" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F195" s="30"/>
-      <c r="G195" s="30"/>
-      <c r="H195" s="30"/>
-      <c r="I195" s="30"/>
-      <c r="J195" s="43"/>
-      <c r="K195" s="43"/>
+        <v>55</v>
+      </c>
+      <c r="F195" s="25"/>
+      <c r="G195" s="25"/>
+      <c r="H195" s="25"/>
+      <c r="I195" s="25"/>
+      <c r="J195" s="20"/>
+      <c r="K195" s="20"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" s="21"/>
@@ -4450,14 +4489,14 @@
       <c r="C196" s="21"/>
       <c r="D196" s="23"/>
       <c r="E196" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F196" s="30"/>
-      <c r="G196" s="30"/>
-      <c r="H196" s="30"/>
-      <c r="I196" s="30"/>
-      <c r="J196" s="43"/>
-      <c r="K196" s="43"/>
+        <v>176</v>
+      </c>
+      <c r="F196" s="25"/>
+      <c r="G196" s="25"/>
+      <c r="H196" s="25"/>
+      <c r="I196" s="25"/>
+      <c r="J196" s="20"/>
+      <c r="K196" s="20"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" s="21"/>
@@ -4465,14 +4504,14 @@
       <c r="C197" s="21"/>
       <c r="D197" s="23"/>
       <c r="E197" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F197" s="30"/>
-      <c r="G197" s="30"/>
-      <c r="H197" s="30"/>
-      <c r="I197" s="30"/>
-      <c r="J197" s="43"/>
-      <c r="K197" s="43"/>
+        <v>179</v>
+      </c>
+      <c r="F197" s="25"/>
+      <c r="G197" s="25"/>
+      <c r="H197" s="25"/>
+      <c r="I197" s="25"/>
+      <c r="J197" s="20"/>
+      <c r="K197" s="20"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" s="21"/>
@@ -4480,14 +4519,14 @@
       <c r="C198" s="21"/>
       <c r="D198" s="23"/>
       <c r="E198" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F198" s="30"/>
-      <c r="G198" s="30"/>
-      <c r="H198" s="30"/>
-      <c r="I198" s="30"/>
-      <c r="J198" s="43"/>
-      <c r="K198" s="43"/>
+        <v>180</v>
+      </c>
+      <c r="F198" s="25"/>
+      <c r="G198" s="25"/>
+      <c r="H198" s="25"/>
+      <c r="I198" s="25"/>
+      <c r="J198" s="20"/>
+      <c r="K198" s="20"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="21"/>
@@ -4495,14 +4534,14 @@
       <c r="C199" s="21"/>
       <c r="D199" s="23"/>
       <c r="E199" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F199" s="30"/>
-      <c r="G199" s="30"/>
-      <c r="H199" s="30"/>
-      <c r="I199" s="30"/>
-      <c r="J199" s="43"/>
-      <c r="K199" s="43"/>
+        <v>190</v>
+      </c>
+      <c r="F199" s="25"/>
+      <c r="G199" s="25"/>
+      <c r="H199" s="25"/>
+      <c r="I199" s="25"/>
+      <c r="J199" s="20"/>
+      <c r="K199" s="20"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="21"/>
@@ -4510,14 +4549,14 @@
       <c r="C200" s="21"/>
       <c r="D200" s="23"/>
       <c r="E200" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F200" s="30"/>
-      <c r="G200" s="30"/>
-      <c r="H200" s="30"/>
-      <c r="I200" s="30"/>
-      <c r="J200" s="43"/>
-      <c r="K200" s="43"/>
+        <v>191</v>
+      </c>
+      <c r="F200" s="25"/>
+      <c r="G200" s="25"/>
+      <c r="H200" s="25"/>
+      <c r="I200" s="25"/>
+      <c r="J200" s="20"/>
+      <c r="K200" s="20"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" s="21"/>
@@ -4525,89 +4564,317 @@
       <c r="C201" s="21"/>
       <c r="D201" s="23"/>
       <c r="E201" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F201" s="31"/>
-      <c r="G201" s="31"/>
-      <c r="H201" s="31"/>
-      <c r="I201" s="31"/>
-      <c r="J201" s="43"/>
-      <c r="K201" s="43"/>
+        <v>192</v>
+      </c>
+      <c r="F201" s="26"/>
+      <c r="G201" s="26"/>
+      <c r="H201" s="26"/>
+      <c r="I201" s="26"/>
+      <c r="J201" s="20"/>
+      <c r="K201" s="20"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A202" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B202" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202" s="27"/>
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A203" s="21"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F203" s="27"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A204" s="21"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A205" s="21"/>
+      <c r="B205" s="22"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="23"/>
+      <c r="E205" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F205" s="27"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="27"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A206" s="21"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F206" s="27"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="27"/>
+      <c r="I206" s="27"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A207" s="21"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F207" s="27"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="27"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="12"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A208" s="21"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F208" s="27"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A209" s="21"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="27"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="12"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A210" s="21"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="21"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A211" s="21"/>
+      <c r="B211" s="22"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="23"/>
+      <c r="E211" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="12"/>
+      <c r="K211" s="12"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A212" s="21"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F212" s="27"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27"/>
+      <c r="I212" s="27"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="12"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A213" s="21"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="12"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A214" s="21"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="12"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A215" s="21"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F215" s="27"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="27"/>
+      <c r="I215" s="27"/>
+      <c r="J215" s="12"/>
+      <c r="K215" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
-    <mergeCell ref="A194:A201"/>
-    <mergeCell ref="B194:B201"/>
-    <mergeCell ref="C194:C201"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="F194:F201"/>
-    <mergeCell ref="G194:G201"/>
-    <mergeCell ref="H194:H201"/>
-    <mergeCell ref="I194:I201"/>
-    <mergeCell ref="A180:A193"/>
-    <mergeCell ref="B180:B193"/>
-    <mergeCell ref="C180:C193"/>
-    <mergeCell ref="D180:D193"/>
-    <mergeCell ref="F180:F193"/>
-    <mergeCell ref="G180:G193"/>
-    <mergeCell ref="H180:H193"/>
-    <mergeCell ref="I180:I193"/>
-    <mergeCell ref="A160:A169"/>
-    <mergeCell ref="B160:B169"/>
-    <mergeCell ref="C160:C169"/>
-    <mergeCell ref="D160:D169"/>
-    <mergeCell ref="F160:F169"/>
-    <mergeCell ref="G160:G169"/>
-    <mergeCell ref="H160:H169"/>
-    <mergeCell ref="I160:I169"/>
-    <mergeCell ref="A170:A179"/>
-    <mergeCell ref="B170:B179"/>
-    <mergeCell ref="C170:C179"/>
-    <mergeCell ref="D170:D179"/>
-    <mergeCell ref="F170:F179"/>
-    <mergeCell ref="G170:G179"/>
-    <mergeCell ref="H170:H179"/>
-    <mergeCell ref="I170:I179"/>
-    <mergeCell ref="I110:I119"/>
-    <mergeCell ref="A148:A159"/>
-    <mergeCell ref="B148:B159"/>
-    <mergeCell ref="C148:C159"/>
-    <mergeCell ref="D148:D159"/>
-    <mergeCell ref="F148:F159"/>
-    <mergeCell ref="G148:G159"/>
-    <mergeCell ref="H148:H159"/>
-    <mergeCell ref="I148:I159"/>
-    <mergeCell ref="G104:G109"/>
-    <mergeCell ref="H104:H109"/>
-    <mergeCell ref="I104:I109"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="D104:D109"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="I92:I99"/>
-    <mergeCell ref="B92:B103"/>
-    <mergeCell ref="C92:C103"/>
-    <mergeCell ref="D92:D103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="I100:I103"/>
-    <mergeCell ref="G92:G99"/>
-    <mergeCell ref="A92:A103"/>
-    <mergeCell ref="H76:H83"/>
-    <mergeCell ref="I76:I83"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="D84:D91"/>
-    <mergeCell ref="G84:G91"/>
-    <mergeCell ref="H84:H91"/>
-    <mergeCell ref="I84:I91"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="D76:D83"/>
-    <mergeCell ref="G76:G83"/>
+  <mergeCells count="193">
+    <mergeCell ref="I138:I147"/>
+    <mergeCell ref="A138:A147"/>
+    <mergeCell ref="B138:B147"/>
+    <mergeCell ref="C138:C147"/>
+    <mergeCell ref="D138:D147"/>
+    <mergeCell ref="G138:G147"/>
+    <mergeCell ref="A202:A215"/>
+    <mergeCell ref="B202:B215"/>
+    <mergeCell ref="C202:C215"/>
+    <mergeCell ref="D202:D215"/>
+    <mergeCell ref="F202:F215"/>
+    <mergeCell ref="G202:G215"/>
+    <mergeCell ref="H202:H215"/>
+    <mergeCell ref="I202:I215"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A110:A119"/>
+    <mergeCell ref="B110:B119"/>
+    <mergeCell ref="C110:C119"/>
+    <mergeCell ref="D110:D119"/>
+    <mergeCell ref="G110:G119"/>
+    <mergeCell ref="H110:H119"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="C45:C55"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I44"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="C34:C44"/>
+    <mergeCell ref="D34:D44"/>
+    <mergeCell ref="G34:G44"/>
+    <mergeCell ref="H34:H44"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="I56:I59"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A68:A75"/>
@@ -4632,74 +4899,46 @@
     <mergeCell ref="C56:C59"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="B45:B55"/>
-    <mergeCell ref="C45:C55"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I34:I44"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="C34:C44"/>
-    <mergeCell ref="D34:D44"/>
-    <mergeCell ref="G34:G44"/>
-    <mergeCell ref="H34:H44"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A110:A119"/>
-    <mergeCell ref="B110:B119"/>
-    <mergeCell ref="C110:C119"/>
-    <mergeCell ref="D110:D119"/>
-    <mergeCell ref="G110:G119"/>
-    <mergeCell ref="H110:H119"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H76:H83"/>
+    <mergeCell ref="I76:I83"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="G84:G91"/>
+    <mergeCell ref="H84:H91"/>
+    <mergeCell ref="I84:I91"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="D76:D83"/>
+    <mergeCell ref="G76:G83"/>
+    <mergeCell ref="G104:G109"/>
+    <mergeCell ref="H104:H109"/>
+    <mergeCell ref="I104:I109"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="D104:D109"/>
+    <mergeCell ref="H92:H99"/>
+    <mergeCell ref="I92:I99"/>
+    <mergeCell ref="B92:B103"/>
+    <mergeCell ref="C92:C103"/>
+    <mergeCell ref="D92:D103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="G92:G99"/>
+    <mergeCell ref="A92:A103"/>
+    <mergeCell ref="I110:I119"/>
+    <mergeCell ref="A148:A159"/>
+    <mergeCell ref="B148:B159"/>
+    <mergeCell ref="C148:C159"/>
+    <mergeCell ref="D148:D159"/>
+    <mergeCell ref="F148:F159"/>
+    <mergeCell ref="G148:G159"/>
+    <mergeCell ref="H148:H159"/>
+    <mergeCell ref="I148:I159"/>
     <mergeCell ref="A120:A129"/>
     <mergeCell ref="B120:B129"/>
     <mergeCell ref="C120:C129"/>
@@ -4715,12 +4954,38 @@
     <mergeCell ref="H130:H137"/>
     <mergeCell ref="I130:I137"/>
     <mergeCell ref="H138:H147"/>
-    <mergeCell ref="I138:I147"/>
-    <mergeCell ref="A138:A147"/>
-    <mergeCell ref="B138:B147"/>
-    <mergeCell ref="C138:C147"/>
-    <mergeCell ref="D138:D147"/>
-    <mergeCell ref="G138:G147"/>
+    <mergeCell ref="A160:A169"/>
+    <mergeCell ref="B160:B169"/>
+    <mergeCell ref="C160:C169"/>
+    <mergeCell ref="D160:D169"/>
+    <mergeCell ref="F160:F169"/>
+    <mergeCell ref="G160:G169"/>
+    <mergeCell ref="H160:H169"/>
+    <mergeCell ref="I160:I169"/>
+    <mergeCell ref="A170:A179"/>
+    <mergeCell ref="B170:B179"/>
+    <mergeCell ref="C170:C179"/>
+    <mergeCell ref="D170:D179"/>
+    <mergeCell ref="F170:F179"/>
+    <mergeCell ref="G170:G179"/>
+    <mergeCell ref="H170:H179"/>
+    <mergeCell ref="I170:I179"/>
+    <mergeCell ref="A194:A201"/>
+    <mergeCell ref="B194:B201"/>
+    <mergeCell ref="C194:C201"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="F194:F201"/>
+    <mergeCell ref="G194:G201"/>
+    <mergeCell ref="H194:H201"/>
+    <mergeCell ref="I194:I201"/>
+    <mergeCell ref="A180:A193"/>
+    <mergeCell ref="B180:B193"/>
+    <mergeCell ref="C180:C193"/>
+    <mergeCell ref="D180:D193"/>
+    <mergeCell ref="F180:F193"/>
+    <mergeCell ref="G180:G193"/>
+    <mergeCell ref="H180:H193"/>
+    <mergeCell ref="I180:I193"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Test suite/TestCases.xlsx
+++ b/Test suite/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Assesment\Gmail\Gmail\Test suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BED5DC-AE94-467B-A7D7-BCDFB5C4C25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707CE8F-FE50-48A5-902C-01B7F2235ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FEB9EC7D-418F-4C11-B460-38352BB5E63D}"/>
   </bookViews>
@@ -946,18 +946,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,6 +954,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,6 +977,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,15 +1007,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1002,18 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1332,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7FDCB6-9A4D-47E9-8727-FF4A46E268E6}">
   <dimension ref="A1:L215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1342,10 +1342,10 @@
     <col min="2" max="2" width="32.08984375" style="9" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="80.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08984375" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="80.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" style="6" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
@@ -1440,75 +1440,75 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25" t="s">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21" t="s">
         <v>73</v>
       </c>
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="32" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="21" t="s">
         <v>243</v>
       </c>
       <c r="J11" s="28"/>
@@ -1516,8 +1516,8 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="3" t="s">
@@ -1526,14 +1526,14 @@
       <c r="F12" s="12"/>
       <c r="G12" s="35"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="26"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="3" t="s">
@@ -1542,14 +1542,14 @@
       <c r="F13" s="12"/>
       <c r="G13" s="35"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="26"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="29"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="3" t="s">
@@ -1558,14 +1558,14 @@
       <c r="F14" s="12"/>
       <c r="G14" s="35"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="26"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="3" t="s">
@@ -1574,33 +1574,33 @@
       <c r="F15" s="12"/>
       <c r="G15" s="36"/>
       <c r="H15" s="30"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="30"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="32" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="32" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="28"/>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="21" t="s">
         <v>243</v>
       </c>
       <c r="J16" s="28"/>
@@ -1608,8 +1608,8 @@
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="3" t="s">
@@ -1618,33 +1618,33 @@
       <c r="F17" s="12"/>
       <c r="G17" s="36"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="30"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="32" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>134</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="32" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="28"/>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="21" t="s">
         <v>243</v>
       </c>
       <c r="J18" s="28"/>
@@ -1652,8 +1652,8 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="16" t="s">
@@ -1662,14 +1662,14 @@
       <c r="F19" s="12"/>
       <c r="G19" s="35"/>
       <c r="H19" s="29"/>
-      <c r="I19" s="26"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="16" t="s">
@@ -1678,14 +1678,14 @@
       <c r="F20" s="12"/>
       <c r="G20" s="35"/>
       <c r="H20" s="29"/>
-      <c r="I20" s="26"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="29"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="16" t="s">
@@ -1694,33 +1694,33 @@
       <c r="F21" s="12"/>
       <c r="G21" s="36"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="27"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="30"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="32" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="32" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="28"/>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="21" t="s">
         <v>243</v>
       </c>
       <c r="J22" s="28"/>
@@ -1728,8 +1728,8 @@
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="16" t="s">
@@ -1738,14 +1738,14 @@
       <c r="F23" s="12"/>
       <c r="G23" s="35"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="26"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="29"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="16" t="s">
@@ -1754,14 +1754,14 @@
       <c r="F24" s="12"/>
       <c r="G24" s="35"/>
       <c r="H24" s="29"/>
-      <c r="I24" s="26"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="29"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="16" t="s">
@@ -1770,33 +1770,33 @@
       <c r="F25" s="12"/>
       <c r="G25" s="36"/>
       <c r="H25" s="30"/>
-      <c r="I25" s="27"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="30"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="32" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>141</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="H26" s="28"/>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="21" t="s">
         <v>243</v>
       </c>
       <c r="J26" s="28"/>
@@ -1804,8 +1804,8 @@
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="16" t="s">
@@ -1814,14 +1814,14 @@
       <c r="F27" s="12"/>
       <c r="G27" s="35"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="26"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="29"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="16" t="s">
@@ -1830,14 +1830,14 @@
       <c r="F28" s="12"/>
       <c r="G28" s="35"/>
       <c r="H28" s="29"/>
-      <c r="I28" s="26"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="29"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="16" t="s">
@@ -1846,33 +1846,33 @@
       <c r="F29" s="12"/>
       <c r="G29" s="36"/>
       <c r="H29" s="30"/>
-      <c r="I29" s="27"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="30"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>145</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="32" t="s">
         <v>49</v>
       </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="21" t="s">
         <v>243</v>
       </c>
       <c r="J30" s="28"/>
@@ -1880,8 +1880,8 @@
       <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="16" t="s">
@@ -1890,14 +1890,14 @@
       <c r="F31" s="12"/>
       <c r="G31" s="35"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="26"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="29"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="16" t="s">
@@ -1906,14 +1906,14 @@
       <c r="F32" s="12"/>
       <c r="G32" s="35"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="26"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="29"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="16" t="s">
@@ -1922,33 +1922,33 @@
       <c r="F33" s="12"/>
       <c r="G33" s="36"/>
       <c r="H33" s="30"/>
-      <c r="I33" s="27"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="30"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>127</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="32" t="s">
         <v>54</v>
       </c>
       <c r="H34" s="28"/>
-      <c r="I34" s="25" t="s">
+      <c r="I34" s="21" t="s">
         <v>242</v>
       </c>
       <c r="J34" s="28"/>
@@ -1956,26 +1956,26 @@
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="35"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="26"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="29"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="16" t="s">
         <v>150</v>
       </c>
@@ -1984,48 +1984,48 @@
       </c>
       <c r="G36" s="35"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="26"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="29"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="16" t="s">
         <v>151</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="35"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="26"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="29"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="22"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="35"/>
       <c r="H38" s="29"/>
-      <c r="I38" s="26"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="29"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="16" t="s">
         <v>150</v>
       </c>
@@ -2034,48 +2034,48 @@
       </c>
       <c r="G39" s="35"/>
       <c r="H39" s="29"/>
-      <c r="I39" s="26"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="29"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="22"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="16" t="s">
         <v>154</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="35"/>
       <c r="H40" s="29"/>
-      <c r="I40" s="26"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="29"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="16" t="s">
         <v>153</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="35"/>
       <c r="H41" s="29"/>
-      <c r="I41" s="26"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="29"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="22"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="16" t="s">
         <v>150</v>
       </c>
@@ -2084,1097 +2084,1097 @@
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="29"/>
-      <c r="I42" s="26"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="29"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="35"/>
       <c r="H43" s="29"/>
-      <c r="I43" s="26"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="29"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="22"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="36"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="27"/>
+      <c r="I44" s="23"/>
       <c r="J44" s="30"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25" t="s">
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="J45" s="25"/>
+      <c r="J45" s="21"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="22"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="24"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="16" t="s">
         <v>157</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="22"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="24"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="17" t="s">
         <v>158</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="22"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="24"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="24"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="16" t="s">
         <v>157</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="24"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="17" t="s">
         <v>158</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="24"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="16" t="s">
         <v>157</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="22"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="17" t="s">
         <v>158</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="22"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="24"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F55" s="12"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>127</v>
       </c>
       <c r="F56" s="12"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25" t="s">
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="J56" s="25"/>
+      <c r="J56" s="21"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="24"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="16" t="s">
         <v>160</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="24"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="16" t="s">
         <v>161</v>
       </c>
       <c r="F58" s="12"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="24"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="16" t="s">
         <v>162</v>
       </c>
       <c r="F59" s="12"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
     </row>
     <row r="60" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F60" s="12"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25" t="s">
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="J60" s="25"/>
+      <c r="J60" s="21"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="26"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F61" s="12"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="26"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="24"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="26"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="24"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="3" t="s">
         <v>165</v>
       </c>
       <c r="F63" s="12"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="26"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="24"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
       <c r="E64" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F64" s="12"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="26"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="24"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="3" t="s">
         <v>167</v>
       </c>
       <c r="F65" s="12"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="26"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="24"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="27"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="24"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F68" s="12"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25" t="s">
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J68" s="25"/>
+      <c r="J68" s="21"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="26"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="24"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F69" s="12"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="26"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="24"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="26"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="24"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="3" t="s">
         <v>165</v>
       </c>
       <c r="F71" s="12"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="26"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="24"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="3" t="s">
         <v>170</v>
       </c>
       <c r="F72" s="12"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="26"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="24"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="3" t="s">
         <v>171</v>
       </c>
       <c r="F73" s="12"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="26"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="24"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F74" s="12"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="27"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F76" s="12"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25" t="s">
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J76" s="25"/>
+      <c r="J76" s="21"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="26"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="24"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F77" s="12"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="26"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="24"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="26"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="24"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="3" t="s">
         <v>165</v>
       </c>
       <c r="F79" s="12"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="26"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="24"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="3" t="s">
         <v>174</v>
       </c>
       <c r="F80" s="12"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="26"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="24"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
       <c r="E81" s="3" t="s">
         <v>175</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="26"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="3" t="s">
         <v>176</v>
       </c>
       <c r="F82" s="12"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="27"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="24"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
       <c r="E83" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F83" s="12"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25" t="s">
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J84" s="25"/>
+      <c r="J84" s="21"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="26"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="24"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
       <c r="E85" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="26"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="24"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="26"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="24"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
       <c r="E87" s="3" t="s">
         <v>165</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="26"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="24"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="26"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="24"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
       <c r="E89" s="3" t="s">
         <v>178</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="26"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="24"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="3" t="s">
         <v>179</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="27"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="24"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
       <c r="E91" s="3" t="s">
         <v>180</v>
       </c>
       <c r="F91" s="12"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
     </row>
     <row r="92" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F92" s="12"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="25" t="s">
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J92" s="25"/>
+      <c r="J92" s="21"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="22"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="24"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25"/>
       <c r="E93" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F93" s="12"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="24"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="25"/>
       <c r="E94" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="22"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="24"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
       <c r="E95" s="3" t="s">
         <v>181</v>
       </c>
       <c r="F95" s="12"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="22"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="24"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
       <c r="E96" s="3" t="s">
         <v>182</v>
       </c>
       <c r="F96" s="12"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="22"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="24"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
       <c r="E97" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F97" s="12"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="24"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F98" s="12"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="24"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
       <c r="E99" s="3" t="s">
         <v>182</v>
       </c>
       <c r="F99" s="12"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="24"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F100" s="12"/>
-      <c r="G100" s="25"/>
+      <c r="G100" s="21"/>
       <c r="H100" s="28"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="24"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F101" s="12"/>
-      <c r="G101" s="26"/>
+      <c r="G101" s="22"/>
       <c r="H101" s="29"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="24"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="3" t="s">
         <v>182</v>
       </c>
       <c r="F102" s="12"/>
-      <c r="G102" s="26"/>
+      <c r="G102" s="22"/>
       <c r="H102" s="29"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="22"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="24"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="3" t="s">
         <v>186</v>
       </c>
       <c r="F103" s="12"/>
-      <c r="G103" s="27"/>
+      <c r="G103" s="23"/>
       <c r="H103" s="30"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
     </row>
     <row r="104" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D104" s="34" t="s">
+      <c r="D104" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F104" s="12"/>
-      <c r="G104" s="25"/>
+      <c r="G104" s="21"/>
       <c r="H104" s="28"/>
-      <c r="I104" s="25" t="s">
+      <c r="I104" s="21" t="s">
         <v>243</v>
       </c>
       <c r="J104" s="28"/>
@@ -3182,1520 +3182,1520 @@
       <c r="L104" s="12"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="26"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="26"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="22"/>
       <c r="D105" s="35"/>
       <c r="E105" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F105" s="12"/>
-      <c r="G105" s="26"/>
+      <c r="G105" s="22"/>
       <c r="H105" s="29"/>
-      <c r="I105" s="26"/>
+      <c r="I105" s="22"/>
       <c r="J105" s="29"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="26"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="26"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="22"/>
       <c r="D106" s="35"/>
       <c r="E106" s="3" t="s">
         <v>187</v>
       </c>
       <c r="F106" s="12"/>
-      <c r="G106" s="26"/>
+      <c r="G106" s="22"/>
       <c r="H106" s="29"/>
-      <c r="I106" s="26"/>
+      <c r="I106" s="22"/>
       <c r="J106" s="29"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="26"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="26"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="22"/>
       <c r="D107" s="35"/>
       <c r="E107" s="3" t="s">
         <v>188</v>
       </c>
       <c r="F107" s="12"/>
-      <c r="G107" s="26"/>
+      <c r="G107" s="22"/>
       <c r="H107" s="29"/>
-      <c r="I107" s="26"/>
+      <c r="I107" s="22"/>
       <c r="J107" s="29"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="26"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="26"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="22"/>
       <c r="D108" s="35"/>
       <c r="E108" s="3" t="s">
         <v>182</v>
       </c>
       <c r="F108" s="12"/>
-      <c r="G108" s="26"/>
+      <c r="G108" s="22"/>
       <c r="H108" s="29"/>
-      <c r="I108" s="26"/>
+      <c r="I108" s="22"/>
       <c r="J108" s="29"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="27"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="27"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="23"/>
       <c r="D109" s="36"/>
       <c r="E109" s="3" t="s">
         <v>189</v>
       </c>
       <c r="F109" s="12"/>
-      <c r="G109" s="27"/>
+      <c r="G109" s="23"/>
       <c r="H109" s="30"/>
-      <c r="I109" s="27"/>
+      <c r="I109" s="23"/>
       <c r="J109" s="30"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
     </row>
     <row r="110" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B110" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D110" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F110" s="12"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25" t="s">
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J110" s="25"/>
+      <c r="J110" s="21"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="22"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="24"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F111" s="12"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="24"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F112" s="12"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A113" s="22"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="24"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F113" s="12"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="26"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A114" s="22"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="24"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="25"/>
       <c r="E114" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F114" s="12"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A115" s="22"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="24"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
       <c r="E115" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F115" s="12"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
-      <c r="J115" s="26"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="22"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A116" s="22"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="24"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="25"/>
       <c r="E116" s="3" t="s">
         <v>193</v>
       </c>
       <c r="F116" s="12"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="26"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="22"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A117" s="22"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="24"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="25"/>
       <c r="E117" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="26"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A118" s="22"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="24"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F118" s="12"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A119" s="22"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="24"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="25"/>
       <c r="E119" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F119" s="12"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B120" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F120" s="12"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="25" t="s">
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J120" s="25"/>
+      <c r="J120" s="21"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A121" s="22"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="24"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="25"/>
       <c r="E121" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F121" s="12"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="26"/>
-      <c r="J121" s="26"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A122" s="22"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="24"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="25"/>
       <c r="E122" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F122" s="12"/>
-      <c r="G122" s="26"/>
-      <c r="H122" s="26"/>
-      <c r="I122" s="26"/>
-      <c r="J122" s="26"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A123" s="22"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="24"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="25"/>
       <c r="E123" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F123" s="12"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="26"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A124" s="22"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="24"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="25"/>
       <c r="E124" s="3" t="s">
         <v>195</v>
       </c>
       <c r="F124" s="12"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="26"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A125" s="22"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="24"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="25"/>
       <c r="E125" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F125" s="12"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="26"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A126" s="22"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="24"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="25"/>
       <c r="E126" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F126" s="12"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="22"/>
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A127" s="22"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="24"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="25"/>
       <c r="E127" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F127" s="12"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="26"/>
-      <c r="J127" s="26"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
       <c r="K127" s="12"/>
       <c r="L127" s="12"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A128" s="22"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="24"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="25"/>
       <c r="E128" s="3" t="s">
         <v>197</v>
       </c>
       <c r="F128" s="12"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="26"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="22"/>
       <c r="K128" s="12"/>
       <c r="L128" s="12"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A129" s="22"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="24"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="25"/>
       <c r="E129" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
+      <c r="J129" s="23"/>
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D130" s="24" t="s">
+      <c r="D130" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F130" s="12"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25" t="s">
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J130" s="25"/>
+      <c r="J130" s="21"/>
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A131" s="22"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="24"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="25"/>
       <c r="E131" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F131" s="12"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
+      <c r="J131" s="22"/>
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A132" s="22"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="24"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="25"/>
       <c r="E132" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F132" s="12"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="26"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="22"/>
+      <c r="J132" s="22"/>
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A133" s="22"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="24"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="25"/>
       <c r="E133" s="3" t="s">
         <v>198</v>
       </c>
       <c r="F133" s="12"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+      <c r="J133" s="22"/>
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A134" s="22"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="24"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="25"/>
       <c r="E134" s="3" t="s">
         <v>199</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="26"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A135" s="22"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="24"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="25"/>
       <c r="E135" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="22"/>
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A136" s="22"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="24"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="25"/>
       <c r="E136" s="3" t="s">
         <v>200</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="26"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
+      <c r="J136" s="22"/>
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A137" s="25"/>
-      <c r="B137" s="41"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="34"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="32"/>
       <c r="E137" s="18" t="s">
         <v>201</v>
       </c>
       <c r="F137" s="19"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="26"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="22"/>
       <c r="K137" s="19"/>
       <c r="L137" s="19"/>
     </row>
     <row r="138" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="22" t="s">
+      <c r="A138" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C138" s="22" t="s">
+      <c r="C138" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D138" s="24" t="s">
+      <c r="D138" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F138" s="12"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="25" t="s">
+      <c r="G138" s="24"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J138" s="21"/>
+      <c r="J138" s="26"/>
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A139" s="22"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="24"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="25"/>
       <c r="E139" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F139" s="12"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="21"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="22"/>
+      <c r="J139" s="26"/>
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A140" s="22"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="24"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="25"/>
       <c r="E140" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F140" s="12"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="21"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="21"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="22"/>
+      <c r="J140" s="26"/>
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A141" s="22"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="24"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="25"/>
       <c r="E141" s="3" t="s">
         <v>202</v>
       </c>
       <c r="F141" s="12"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="21"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="22"/>
+      <c r="J141" s="26"/>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A142" s="22"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="22"/>
-      <c r="D142" s="24"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="25"/>
       <c r="E142" s="3" t="s">
         <v>203</v>
       </c>
       <c r="F142" s="12"/>
-      <c r="G142" s="22"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="26"/>
-      <c r="J142" s="21"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="22"/>
+      <c r="J142" s="26"/>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A143" s="22"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="22"/>
-      <c r="D143" s="24"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="25"/>
       <c r="E143" s="3" t="s">
         <v>204</v>
       </c>
       <c r="F143" s="12"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="21"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="21"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="22"/>
+      <c r="J143" s="26"/>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A144" s="22"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="24"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="25"/>
       <c r="E144" s="3" t="s">
         <v>205</v>
       </c>
       <c r="F144" s="12"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="21"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="21"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="22"/>
+      <c r="J144" s="26"/>
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A145" s="22"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="24"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="25"/>
       <c r="E145" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F145" s="12"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="21"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="22"/>
+      <c r="J145" s="26"/>
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A146" s="22"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="24"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="25"/>
       <c r="E146" s="3" t="s">
         <v>207</v>
       </c>
       <c r="F146" s="12"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="26"/>
-      <c r="J146" s="21"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="26"/>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A147" s="22"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="22"/>
-      <c r="D147" s="24"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="25"/>
       <c r="E147" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F147" s="12"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="21"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="26"/>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
     </row>
     <row r="148" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="22" t="s">
+      <c r="A148" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D148" s="24" t="s">
+      <c r="D148" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="25" t="s">
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J148" s="21"/>
+      <c r="J148" s="26"/>
       <c r="K148" s="12"/>
       <c r="L148" s="12"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A149" s="22"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="24"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="25"/>
       <c r="E149" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="21"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="22"/>
+      <c r="J149" s="26"/>
       <c r="K149" s="12"/>
       <c r="L149" s="12"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A150" s="22"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="24"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="25"/>
       <c r="E150" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F150" s="21"/>
-      <c r="G150" s="21"/>
-      <c r="H150" s="21"/>
-      <c r="I150" s="26"/>
-      <c r="J150" s="21"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="22"/>
+      <c r="J150" s="26"/>
       <c r="K150" s="12"/>
       <c r="L150" s="12"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A151" s="22"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="24"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="25"/>
       <c r="E151" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F151" s="21"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="26"/>
-      <c r="J151" s="21"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="22"/>
+      <c r="J151" s="26"/>
       <c r="K151" s="12"/>
       <c r="L151" s="12"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A152" s="22"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="22"/>
-      <c r="D152" s="24"/>
+      <c r="A152" s="24"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="25"/>
       <c r="E152" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F152" s="21"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="21"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="21"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="22"/>
+      <c r="J152" s="26"/>
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A153" s="22"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="22"/>
-      <c r="D153" s="24"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="25"/>
       <c r="E153" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F153" s="21"/>
-      <c r="G153" s="21"/>
-      <c r="H153" s="21"/>
-      <c r="I153" s="26"/>
-      <c r="J153" s="21"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="22"/>
+      <c r="J153" s="26"/>
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A154" s="22"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="24"/>
+      <c r="A154" s="24"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="25"/>
       <c r="E154" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="21"/>
-      <c r="I154" s="26"/>
-      <c r="J154" s="21"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="22"/>
+      <c r="J154" s="26"/>
       <c r="K154" s="12"/>
       <c r="L154" s="12"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A155" s="22"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="24"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="25"/>
       <c r="E155" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="26"/>
-      <c r="J155" s="21"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="22"/>
+      <c r="J155" s="26"/>
       <c r="K155" s="12"/>
       <c r="L155" s="12"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A156" s="22"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="24"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="25"/>
       <c r="E156" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="26"/>
-      <c r="J156" s="21"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="22"/>
+      <c r="J156" s="26"/>
       <c r="K156" s="12"/>
       <c r="L156" s="12"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A157" s="22"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="24"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="25"/>
       <c r="E157" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="26"/>
-      <c r="J157" s="21"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="22"/>
+      <c r="J157" s="26"/>
       <c r="K157" s="12"/>
       <c r="L157" s="12"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A158" s="22"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="22"/>
-      <c r="D158" s="24"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="25"/>
       <c r="E158" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="21"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="22"/>
+      <c r="J158" s="26"/>
       <c r="K158" s="12"/>
       <c r="L158" s="12"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A159" s="22"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="24"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="25"/>
       <c r="E159" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="21"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="21"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="23"/>
+      <c r="J159" s="26"/>
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A160" s="22" t="s">
+      <c r="A160" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B160" s="23" t="s">
+      <c r="B160" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D160" s="24" t="s">
+      <c r="D160" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="25" t="s">
+      <c r="F160" s="26"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J160" s="21"/>
+      <c r="J160" s="26"/>
       <c r="K160" s="12"/>
       <c r="L160" s="12"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A161" s="22"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="24"/>
+      <c r="A161" s="24"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="25"/>
       <c r="E161" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="26"/>
-      <c r="J161" s="21"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="22"/>
+      <c r="J161" s="26"/>
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A162" s="22"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="24"/>
+      <c r="A162" s="24"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="25"/>
       <c r="E162" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="26"/>
-      <c r="J162" s="21"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="22"/>
+      <c r="J162" s="26"/>
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A163" s="22"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="22"/>
-      <c r="D163" s="24"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="25"/>
       <c r="E163" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="21"/>
-      <c r="I163" s="26"/>
-      <c r="J163" s="21"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="26"/>
+      <c r="I163" s="22"/>
+      <c r="J163" s="26"/>
       <c r="K163" s="12"/>
       <c r="L163" s="12"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A164" s="22"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="24"/>
+      <c r="A164" s="24"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="25"/>
       <c r="E164" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="21"/>
-      <c r="I164" s="26"/>
-      <c r="J164" s="21"/>
+      <c r="F164" s="26"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="26"/>
+      <c r="I164" s="22"/>
+      <c r="J164" s="26"/>
       <c r="K164" s="12"/>
       <c r="L164" s="12"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="22"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="24"/>
+      <c r="A165" s="24"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="25"/>
       <c r="E165" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="26"/>
-      <c r="J165" s="21"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="26"/>
+      <c r="I165" s="22"/>
+      <c r="J165" s="26"/>
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A166" s="22"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="24"/>
+      <c r="A166" s="24"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="25"/>
       <c r="E166" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="21"/>
-      <c r="I166" s="26"/>
-      <c r="J166" s="21"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="26"/>
+      <c r="I166" s="22"/>
+      <c r="J166" s="26"/>
       <c r="K166" s="12"/>
       <c r="L166" s="12"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A167" s="22"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="24"/>
+      <c r="A167" s="24"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="25"/>
       <c r="E167" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="21"/>
-      <c r="I167" s="26"/>
-      <c r="J167" s="21"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="26"/>
+      <c r="I167" s="22"/>
+      <c r="J167" s="26"/>
       <c r="K167" s="12"/>
       <c r="L167" s="12"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A168" s="22"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="22"/>
-      <c r="D168" s="24"/>
+      <c r="A168" s="24"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="25"/>
       <c r="E168" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="21"/>
-      <c r="I168" s="26"/>
-      <c r="J168" s="21"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="26"/>
+      <c r="H168" s="26"/>
+      <c r="I168" s="22"/>
+      <c r="J168" s="26"/>
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A169" s="22"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="24"/>
+      <c r="A169" s="24"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="25"/>
       <c r="E169" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="21"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="21"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="26"/>
+      <c r="H169" s="26"/>
+      <c r="I169" s="23"/>
+      <c r="J169" s="26"/>
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A170" s="22" t="s">
+      <c r="A170" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B170" s="23" t="s">
+      <c r="B170" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C170" s="22" t="s">
+      <c r="C170" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D170" s="24" t="s">
+      <c r="D170" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="21"/>
-      <c r="I170" s="25" t="s">
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="26"/>
+      <c r="I170" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J170" s="21"/>
+      <c r="J170" s="26"/>
       <c r="K170" s="12"/>
       <c r="L170" s="12"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A171" s="22"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="24"/>
+      <c r="A171" s="24"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="25"/>
       <c r="E171" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="21"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="21"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="26"/>
+      <c r="H171" s="26"/>
+      <c r="I171" s="22"/>
+      <c r="J171" s="26"/>
       <c r="K171" s="12"/>
       <c r="L171" s="12"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A172" s="22"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="24"/>
+      <c r="A172" s="24"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="25"/>
       <c r="E172" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="21"/>
-      <c r="I172" s="26"/>
-      <c r="J172" s="21"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="26"/>
+      <c r="I172" s="22"/>
+      <c r="J172" s="26"/>
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A173" s="22"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="24"/>
+      <c r="A173" s="24"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="25"/>
       <c r="E173" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="21"/>
-      <c r="I173" s="26"/>
-      <c r="J173" s="21"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="26"/>
+      <c r="I173" s="22"/>
+      <c r="J173" s="26"/>
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A174" s="22"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="24"/>
+      <c r="A174" s="24"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="25"/>
       <c r="E174" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="21"/>
-      <c r="I174" s="26"/>
-      <c r="J174" s="21"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="26"/>
+      <c r="I174" s="22"/>
+      <c r="J174" s="26"/>
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A175" s="22"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="24"/>
+      <c r="A175" s="24"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="25"/>
       <c r="E175" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
-      <c r="H175" s="21"/>
-      <c r="I175" s="26"/>
-      <c r="J175" s="21"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="22"/>
+      <c r="J175" s="26"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A176" s="22"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="24"/>
+      <c r="A176" s="24"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="25"/>
       <c r="E176" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
-      <c r="H176" s="21"/>
-      <c r="I176" s="26"/>
-      <c r="J176" s="21"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="22"/>
+      <c r="J176" s="26"/>
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A177" s="22"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="24"/>
+      <c r="A177" s="24"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="25"/>
       <c r="E177" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
-      <c r="H177" s="21"/>
-      <c r="I177" s="26"/>
-      <c r="J177" s="21"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="22"/>
+      <c r="J177" s="26"/>
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A178" s="22"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="22"/>
-      <c r="D178" s="24"/>
+      <c r="A178" s="24"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="25"/>
       <c r="E178" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="26"/>
-      <c r="J178" s="21"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="22"/>
+      <c r="J178" s="26"/>
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A179" s="22"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="22"/>
-      <c r="D179" s="24"/>
+      <c r="A179" s="24"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="25"/>
       <c r="E179" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F179" s="21"/>
-      <c r="G179" s="21"/>
-      <c r="H179" s="21"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="21"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="26"/>
+      <c r="I179" s="23"/>
+      <c r="J179" s="26"/>
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
     </row>
     <row r="180" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="22" t="s">
+      <c r="A180" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B180" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C180" s="22" t="s">
+      <c r="C180" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D180" s="24" t="s">
+      <c r="D180" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F180" s="21"/>
-      <c r="G180" s="21"/>
-      <c r="H180" s="21"/>
-      <c r="I180" s="25" t="s">
+      <c r="F180" s="26"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="26"/>
+      <c r="I180" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="J180" s="21"/>
+      <c r="J180" s="26"/>
       <c r="K180" s="12"/>
       <c r="L180" s="12"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A181" s="22"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="24"/>
+      <c r="A181" s="24"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="25"/>
       <c r="E181" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F181" s="21"/>
-      <c r="G181" s="21"/>
-      <c r="H181" s="21"/>
-      <c r="I181" s="26"/>
-      <c r="J181" s="21"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="26"/>
+      <c r="I181" s="22"/>
+      <c r="J181" s="26"/>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A182" s="22"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="24"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="25"/>
       <c r="E182" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="21"/>
-      <c r="I182" s="26"/>
-      <c r="J182" s="21"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
+      <c r="H182" s="26"/>
+      <c r="I182" s="22"/>
+      <c r="J182" s="26"/>
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A183" s="22"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="24"/>
+      <c r="A183" s="24"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="25"/>
       <c r="E183" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F183" s="21"/>
-      <c r="G183" s="21"/>
-      <c r="H183" s="21"/>
-      <c r="I183" s="26"/>
-      <c r="J183" s="21"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="26"/>
+      <c r="H183" s="26"/>
+      <c r="I183" s="22"/>
+      <c r="J183" s="26"/>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A184" s="22"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="22"/>
-      <c r="D184" s="24"/>
+      <c r="A184" s="24"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="25"/>
       <c r="E184" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F184" s="21"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="21"/>
-      <c r="I184" s="26"/>
-      <c r="J184" s="21"/>
+      <c r="F184" s="26"/>
+      <c r="G184" s="26"/>
+      <c r="H184" s="26"/>
+      <c r="I184" s="22"/>
+      <c r="J184" s="26"/>
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A185" s="22"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="24"/>
+      <c r="A185" s="24"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="25"/>
       <c r="E185" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F185" s="21"/>
-      <c r="G185" s="21"/>
-      <c r="H185" s="21"/>
-      <c r="I185" s="26"/>
-      <c r="J185" s="21"/>
+      <c r="F185" s="26"/>
+      <c r="G185" s="26"/>
+      <c r="H185" s="26"/>
+      <c r="I185" s="22"/>
+      <c r="J185" s="26"/>
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A186" s="22"/>
-      <c r="B186" s="23"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="24"/>
+      <c r="A186" s="24"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="25"/>
       <c r="E186" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F186" s="21"/>
-      <c r="G186" s="21"/>
-      <c r="H186" s="21"/>
-      <c r="I186" s="26"/>
-      <c r="J186" s="21"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="22"/>
+      <c r="J186" s="26"/>
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A187" s="22"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="24"/>
+      <c r="A187" s="24"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="25"/>
       <c r="E187" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="26"/>
-      <c r="J187" s="21"/>
+      <c r="F187" s="26"/>
+      <c r="G187" s="26"/>
+      <c r="H187" s="26"/>
+      <c r="I187" s="22"/>
+      <c r="J187" s="26"/>
       <c r="K187" s="12"/>
       <c r="L187" s="12"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A188" s="22"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="24"/>
+      <c r="A188" s="24"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="25"/>
       <c r="E188" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F188" s="21"/>
-      <c r="G188" s="21"/>
-      <c r="H188" s="21"/>
-      <c r="I188" s="26"/>
-      <c r="J188" s="21"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="26"/>
+      <c r="H188" s="26"/>
+      <c r="I188" s="22"/>
+      <c r="J188" s="26"/>
       <c r="K188" s="12"/>
       <c r="L188" s="12"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A189" s="22"/>
-      <c r="B189" s="23"/>
-      <c r="C189" s="22"/>
-      <c r="D189" s="24"/>
+      <c r="A189" s="24"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="25"/>
       <c r="E189" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F189" s="21"/>
-      <c r="G189" s="21"/>
-      <c r="H189" s="21"/>
-      <c r="I189" s="26"/>
-      <c r="J189" s="21"/>
+      <c r="F189" s="26"/>
+      <c r="G189" s="26"/>
+      <c r="H189" s="26"/>
+      <c r="I189" s="22"/>
+      <c r="J189" s="26"/>
       <c r="K189" s="12"/>
       <c r="L189" s="12"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A190" s="22"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="22"/>
-      <c r="D190" s="24"/>
+      <c r="A190" s="24"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="25"/>
       <c r="E190" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="21"/>
-      <c r="I190" s="26"/>
-      <c r="J190" s="21"/>
+      <c r="F190" s="26"/>
+      <c r="G190" s="26"/>
+      <c r="H190" s="26"/>
+      <c r="I190" s="22"/>
+      <c r="J190" s="26"/>
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A191" s="22"/>
-      <c r="B191" s="23"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="24"/>
+      <c r="A191" s="24"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="25"/>
       <c r="E191" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="21"/>
-      <c r="I191" s="26"/>
-      <c r="J191" s="21"/>
+      <c r="F191" s="26"/>
+      <c r="G191" s="26"/>
+      <c r="H191" s="26"/>
+      <c r="I191" s="22"/>
+      <c r="J191" s="26"/>
       <c r="K191" s="12"/>
       <c r="L191" s="12"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A192" s="22"/>
-      <c r="B192" s="23"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="24"/>
+      <c r="A192" s="24"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="25"/>
       <c r="E192" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="21"/>
-      <c r="I192" s="26"/>
-      <c r="J192" s="21"/>
+      <c r="F192" s="26"/>
+      <c r="G192" s="26"/>
+      <c r="H192" s="26"/>
+      <c r="I192" s="22"/>
+      <c r="J192" s="26"/>
       <c r="K192" s="12"/>
       <c r="L192" s="12"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A193" s="22"/>
-      <c r="B193" s="23"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="24"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="25"/>
       <c r="E193" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F193" s="21"/>
-      <c r="G193" s="21"/>
-      <c r="H193" s="21"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="21"/>
+      <c r="F193" s="26"/>
+      <c r="G193" s="26"/>
+      <c r="H193" s="26"/>
+      <c r="I193" s="23"/>
+      <c r="J193" s="26"/>
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A194" s="22" t="s">
+      <c r="A194" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B194" s="23" t="s">
+      <c r="B194" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C194" s="22" t="s">
+      <c r="C194" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D194" s="24" t="s">
+      <c r="D194" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E194" s="3" t="s">
@@ -4704,7 +4704,7 @@
       <c r="F194" s="28"/>
       <c r="G194" s="28"/>
       <c r="H194" s="28"/>
-      <c r="I194" s="25" t="s">
+      <c r="I194" s="21" t="s">
         <v>242</v>
       </c>
       <c r="J194" s="28"/>
@@ -4712,457 +4712,444 @@
       <c r="L194" s="20"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A195" s="22"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="24"/>
+      <c r="A195" s="24"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="25"/>
       <c r="E195" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F195" s="29"/>
       <c r="G195" s="29"/>
       <c r="H195" s="29"/>
-      <c r="I195" s="26"/>
+      <c r="I195" s="22"/>
       <c r="J195" s="29"/>
       <c r="K195" s="20"/>
       <c r="L195" s="20"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A196" s="22"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="24"/>
+      <c r="A196" s="24"/>
+      <c r="B196" s="27"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="25"/>
       <c r="E196" s="3" t="s">
         <v>225</v>
       </c>
       <c r="F196" s="29"/>
       <c r="G196" s="29"/>
       <c r="H196" s="29"/>
-      <c r="I196" s="26"/>
+      <c r="I196" s="22"/>
       <c r="J196" s="29"/>
       <c r="K196" s="20"/>
       <c r="L196" s="20"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A197" s="22"/>
-      <c r="B197" s="23"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="24"/>
+      <c r="A197" s="24"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="25"/>
       <c r="E197" s="3" t="s">
         <v>228</v>
       </c>
       <c r="F197" s="29"/>
       <c r="G197" s="29"/>
       <c r="H197" s="29"/>
-      <c r="I197" s="26"/>
+      <c r="I197" s="22"/>
       <c r="J197" s="29"/>
       <c r="K197" s="20"/>
       <c r="L197" s="20"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A198" s="22"/>
-      <c r="B198" s="23"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="24"/>
+      <c r="A198" s="24"/>
+      <c r="B198" s="27"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="25"/>
       <c r="E198" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F198" s="29"/>
       <c r="G198" s="29"/>
       <c r="H198" s="29"/>
-      <c r="I198" s="26"/>
+      <c r="I198" s="22"/>
       <c r="J198" s="29"/>
       <c r="K198" s="20"/>
       <c r="L198" s="20"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A199" s="22"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="24"/>
+      <c r="A199" s="24"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="25"/>
       <c r="E199" s="3" t="s">
         <v>235</v>
       </c>
       <c r="F199" s="29"/>
       <c r="G199" s="29"/>
       <c r="H199" s="29"/>
-      <c r="I199" s="26"/>
+      <c r="I199" s="22"/>
       <c r="J199" s="29"/>
       <c r="K199" s="20"/>
       <c r="L199" s="20"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A200" s="22"/>
-      <c r="B200" s="23"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="24"/>
+      <c r="A200" s="24"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="25"/>
       <c r="E200" s="3" t="s">
         <v>236</v>
       </c>
       <c r="F200" s="29"/>
       <c r="G200" s="29"/>
       <c r="H200" s="29"/>
-      <c r="I200" s="26"/>
+      <c r="I200" s="22"/>
       <c r="J200" s="29"/>
       <c r="K200" s="20"/>
       <c r="L200" s="20"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A201" s="22"/>
-      <c r="B201" s="23"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="24"/>
+      <c r="A201" s="24"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="25"/>
       <c r="E201" s="3" t="s">
         <v>237</v>
       </c>
       <c r="F201" s="30"/>
       <c r="G201" s="30"/>
       <c r="H201" s="30"/>
-      <c r="I201" s="27"/>
+      <c r="I201" s="23"/>
       <c r="J201" s="30"/>
       <c r="K201" s="20"/>
       <c r="L201" s="20"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A202" s="22" t="s">
+      <c r="A202" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="B202" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C202" s="22" t="s">
+      <c r="C202" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D202" s="24" t="s">
+      <c r="D202" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F202" s="21"/>
-      <c r="G202" s="21"/>
-      <c r="H202" s="21"/>
-      <c r="I202" s="25" t="s">
+      <c r="F202" s="26"/>
+      <c r="G202" s="26"/>
+      <c r="H202" s="26"/>
+      <c r="I202" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="J202" s="21"/>
+      <c r="J202" s="26"/>
       <c r="K202" s="12"/>
       <c r="L202" s="12"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A203" s="22"/>
-      <c r="B203" s="23"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="24"/>
+      <c r="A203" s="24"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="25"/>
       <c r="E203" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F203" s="21"/>
-      <c r="G203" s="21"/>
-      <c r="H203" s="21"/>
-      <c r="I203" s="26"/>
-      <c r="J203" s="21"/>
+      <c r="F203" s="26"/>
+      <c r="G203" s="26"/>
+      <c r="H203" s="26"/>
+      <c r="I203" s="22"/>
+      <c r="J203" s="26"/>
       <c r="K203" s="12"/>
       <c r="L203" s="12"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A204" s="22"/>
-      <c r="B204" s="23"/>
-      <c r="C204" s="22"/>
-      <c r="D204" s="24"/>
+      <c r="A204" s="24"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="25"/>
       <c r="E204" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F204" s="21"/>
-      <c r="G204" s="21"/>
-      <c r="H204" s="21"/>
-      <c r="I204" s="26"/>
-      <c r="J204" s="21"/>
+      <c r="F204" s="26"/>
+      <c r="G204" s="26"/>
+      <c r="H204" s="26"/>
+      <c r="I204" s="22"/>
+      <c r="J204" s="26"/>
       <c r="K204" s="12"/>
       <c r="L204" s="12"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A205" s="22"/>
-      <c r="B205" s="23"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="24"/>
+      <c r="A205" s="24"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="24"/>
+      <c r="D205" s="25"/>
       <c r="E205" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="21"/>
-      <c r="I205" s="26"/>
-      <c r="J205" s="21"/>
+      <c r="F205" s="26"/>
+      <c r="G205" s="26"/>
+      <c r="H205" s="26"/>
+      <c r="I205" s="22"/>
+      <c r="J205" s="26"/>
       <c r="K205" s="12"/>
       <c r="L205" s="12"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A206" s="22"/>
-      <c r="B206" s="23"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="24"/>
+      <c r="A206" s="24"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="25"/>
       <c r="E206" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F206" s="21"/>
-      <c r="G206" s="21"/>
-      <c r="H206" s="21"/>
-      <c r="I206" s="26"/>
-      <c r="J206" s="21"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="26"/>
+      <c r="H206" s="26"/>
+      <c r="I206" s="22"/>
+      <c r="J206" s="26"/>
       <c r="K206" s="12"/>
       <c r="L206" s="12"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A207" s="22"/>
-      <c r="B207" s="23"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="24"/>
+      <c r="A207" s="24"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="25"/>
       <c r="E207" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F207" s="21"/>
-      <c r="G207" s="21"/>
-      <c r="H207" s="21"/>
-      <c r="I207" s="26"/>
-      <c r="J207" s="21"/>
+      <c r="F207" s="26"/>
+      <c r="G207" s="26"/>
+      <c r="H207" s="26"/>
+      <c r="I207" s="22"/>
+      <c r="J207" s="26"/>
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A208" s="22"/>
-      <c r="B208" s="23"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="24"/>
+      <c r="A208" s="24"/>
+      <c r="B208" s="27"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="25"/>
       <c r="E208" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F208" s="21"/>
-      <c r="G208" s="21"/>
-      <c r="H208" s="21"/>
-      <c r="I208" s="26"/>
-      <c r="J208" s="21"/>
+      <c r="F208" s="26"/>
+      <c r="G208" s="26"/>
+      <c r="H208" s="26"/>
+      <c r="I208" s="22"/>
+      <c r="J208" s="26"/>
       <c r="K208" s="12"/>
       <c r="L208" s="12"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A209" s="22"/>
-      <c r="B209" s="23"/>
-      <c r="C209" s="22"/>
-      <c r="D209" s="24"/>
+      <c r="A209" s="24"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="25"/>
       <c r="E209" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F209" s="21"/>
-      <c r="G209" s="21"/>
-      <c r="H209" s="21"/>
-      <c r="I209" s="26"/>
-      <c r="J209" s="21"/>
+      <c r="F209" s="26"/>
+      <c r="G209" s="26"/>
+      <c r="H209" s="26"/>
+      <c r="I209" s="22"/>
+      <c r="J209" s="26"/>
       <c r="K209" s="12"/>
       <c r="L209" s="12"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A210" s="22"/>
-      <c r="B210" s="23"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="24"/>
+      <c r="A210" s="24"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="25"/>
       <c r="E210" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F210" s="21"/>
-      <c r="G210" s="21"/>
-      <c r="H210" s="21"/>
-      <c r="I210" s="26"/>
-      <c r="J210" s="21"/>
+      <c r="F210" s="26"/>
+      <c r="G210" s="26"/>
+      <c r="H210" s="26"/>
+      <c r="I210" s="22"/>
+      <c r="J210" s="26"/>
       <c r="K210" s="12"/>
       <c r="L210" s="12"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A211" s="22"/>
-      <c r="B211" s="23"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="24"/>
+      <c r="A211" s="24"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="24"/>
+      <c r="D211" s="25"/>
       <c r="E211" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F211" s="21"/>
-      <c r="G211" s="21"/>
-      <c r="H211" s="21"/>
-      <c r="I211" s="26"/>
-      <c r="J211" s="21"/>
+      <c r="F211" s="26"/>
+      <c r="G211" s="26"/>
+      <c r="H211" s="26"/>
+      <c r="I211" s="22"/>
+      <c r="J211" s="26"/>
       <c r="K211" s="12"/>
       <c r="L211" s="12"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A212" s="22"/>
-      <c r="B212" s="23"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="24"/>
+      <c r="A212" s="24"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="25"/>
       <c r="E212" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F212" s="21"/>
-      <c r="G212" s="21"/>
-      <c r="H212" s="21"/>
-      <c r="I212" s="26"/>
-      <c r="J212" s="21"/>
+      <c r="F212" s="26"/>
+      <c r="G212" s="26"/>
+      <c r="H212" s="26"/>
+      <c r="I212" s="22"/>
+      <c r="J212" s="26"/>
       <c r="K212" s="12"/>
       <c r="L212" s="12"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A213" s="22"/>
-      <c r="B213" s="23"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="24"/>
+      <c r="A213" s="24"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="25"/>
       <c r="E213" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F213" s="21"/>
-      <c r="G213" s="21"/>
-      <c r="H213" s="21"/>
-      <c r="I213" s="26"/>
-      <c r="J213" s="21"/>
+      <c r="F213" s="26"/>
+      <c r="G213" s="26"/>
+      <c r="H213" s="26"/>
+      <c r="I213" s="22"/>
+      <c r="J213" s="26"/>
       <c r="K213" s="12"/>
       <c r="L213" s="12"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A214" s="22"/>
-      <c r="B214" s="23"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="24"/>
+      <c r="A214" s="24"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="24"/>
+      <c r="D214" s="25"/>
       <c r="E214" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F214" s="21"/>
-      <c r="G214" s="21"/>
-      <c r="H214" s="21"/>
-      <c r="I214" s="26"/>
-      <c r="J214" s="21"/>
+      <c r="F214" s="26"/>
+      <c r="G214" s="26"/>
+      <c r="H214" s="26"/>
+      <c r="I214" s="22"/>
+      <c r="J214" s="26"/>
       <c r="K214" s="12"/>
       <c r="L214" s="12"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A215" s="22"/>
-      <c r="B215" s="23"/>
-      <c r="C215" s="22"/>
-      <c r="D215" s="24"/>
+      <c r="A215" s="24"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="24"/>
+      <c r="D215" s="25"/>
       <c r="E215" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F215" s="21"/>
-      <c r="G215" s="21"/>
-      <c r="H215" s="21"/>
-      <c r="I215" s="27"/>
-      <c r="J215" s="21"/>
+      <c r="F215" s="26"/>
+      <c r="G215" s="26"/>
+      <c r="H215" s="26"/>
+      <c r="I215" s="23"/>
+      <c r="J215" s="26"/>
       <c r="K215" s="12"/>
       <c r="L215" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:L8" xr:uid="{AC7FDCB6-9A4D-47E9-8727-FF4A46E268E6}"/>
   <mergeCells count="218">
-    <mergeCell ref="I202:I215"/>
-    <mergeCell ref="I120:I129"/>
-    <mergeCell ref="I130:I137"/>
-    <mergeCell ref="I138:I147"/>
-    <mergeCell ref="I148:I159"/>
-    <mergeCell ref="I160:I169"/>
-    <mergeCell ref="I170:I179"/>
-    <mergeCell ref="I180:I193"/>
-    <mergeCell ref="I194:I201"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="I60:I67"/>
-    <mergeCell ref="I68:I75"/>
-    <mergeCell ref="I76:I83"/>
-    <mergeCell ref="I84:I91"/>
-    <mergeCell ref="I92:I103"/>
-    <mergeCell ref="J92:J103"/>
-    <mergeCell ref="I104:I109"/>
-    <mergeCell ref="I110:I119"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I34:I44"/>
-    <mergeCell ref="I45:I55"/>
-    <mergeCell ref="C170:C179"/>
-    <mergeCell ref="D170:D179"/>
-    <mergeCell ref="F170:F179"/>
-    <mergeCell ref="G170:G179"/>
-    <mergeCell ref="H170:H179"/>
-    <mergeCell ref="J170:J179"/>
-    <mergeCell ref="A194:A201"/>
-    <mergeCell ref="B194:B201"/>
-    <mergeCell ref="C194:C201"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="F194:F201"/>
-    <mergeCell ref="G194:G201"/>
-    <mergeCell ref="H194:H201"/>
-    <mergeCell ref="J194:J201"/>
-    <mergeCell ref="A180:A193"/>
-    <mergeCell ref="B180:B193"/>
-    <mergeCell ref="C180:C193"/>
-    <mergeCell ref="D180:D193"/>
-    <mergeCell ref="F180:F193"/>
-    <mergeCell ref="G180:G193"/>
-    <mergeCell ref="H180:H193"/>
-    <mergeCell ref="J180:J193"/>
-    <mergeCell ref="J110:J119"/>
-    <mergeCell ref="A148:A159"/>
-    <mergeCell ref="B148:B159"/>
-    <mergeCell ref="C148:C159"/>
-    <mergeCell ref="D148:D159"/>
-    <mergeCell ref="F148:F159"/>
-    <mergeCell ref="G148:G159"/>
-    <mergeCell ref="H148:H159"/>
-    <mergeCell ref="J148:J159"/>
-    <mergeCell ref="A120:A129"/>
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="C120:C129"/>
-    <mergeCell ref="D120:D129"/>
-    <mergeCell ref="G120:G129"/>
-    <mergeCell ref="H120:H129"/>
-    <mergeCell ref="J120:J129"/>
-    <mergeCell ref="A130:A137"/>
-    <mergeCell ref="B130:B137"/>
-    <mergeCell ref="C130:C137"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="G130:G137"/>
-    <mergeCell ref="H130:H137"/>
-    <mergeCell ref="J130:J137"/>
-    <mergeCell ref="H138:H147"/>
-    <mergeCell ref="G104:G109"/>
-    <mergeCell ref="H104:H109"/>
-    <mergeCell ref="J104:J109"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="D104:D109"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="B92:B103"/>
-    <mergeCell ref="C92:C103"/>
-    <mergeCell ref="D92:D103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="G92:G99"/>
-    <mergeCell ref="A92:A103"/>
-    <mergeCell ref="H76:H83"/>
-    <mergeCell ref="J76:J83"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="D84:D91"/>
-    <mergeCell ref="G84:G91"/>
-    <mergeCell ref="H84:H91"/>
-    <mergeCell ref="J84:J91"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="D76:D83"/>
-    <mergeCell ref="G76:G83"/>
-    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="H202:H215"/>
+    <mergeCell ref="J202:J215"/>
+    <mergeCell ref="A160:A169"/>
+    <mergeCell ref="B160:B169"/>
+    <mergeCell ref="C160:C169"/>
+    <mergeCell ref="D160:D169"/>
+    <mergeCell ref="F160:F169"/>
+    <mergeCell ref="G160:G169"/>
+    <mergeCell ref="H160:H169"/>
+    <mergeCell ref="J160:J169"/>
+    <mergeCell ref="A170:A179"/>
+    <mergeCell ref="B170:B179"/>
+    <mergeCell ref="A138:A147"/>
+    <mergeCell ref="B138:B147"/>
+    <mergeCell ref="C138:C147"/>
+    <mergeCell ref="D138:D147"/>
+    <mergeCell ref="G138:G147"/>
+    <mergeCell ref="A202:A215"/>
+    <mergeCell ref="B202:B215"/>
+    <mergeCell ref="C202:C215"/>
+    <mergeCell ref="D202:D215"/>
+    <mergeCell ref="F202:F215"/>
+    <mergeCell ref="G202:G215"/>
+    <mergeCell ref="H110:H119"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A110:A119"/>
+    <mergeCell ref="B110:B119"/>
+    <mergeCell ref="C110:C119"/>
+    <mergeCell ref="D110:D119"/>
+    <mergeCell ref="G110:G119"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="C45:C55"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="J34:J44"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="C34:C44"/>
+    <mergeCell ref="D34:D44"/>
+    <mergeCell ref="G34:G44"/>
+    <mergeCell ref="H34:H44"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="H30:H33"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="A68:A75"/>
     <mergeCell ref="B68:B75"/>
@@ -5187,97 +5174,110 @@
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="B60:B67"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J15"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="B45:B55"/>
-    <mergeCell ref="C45:C55"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="J34:J44"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="C34:C44"/>
-    <mergeCell ref="D34:D44"/>
-    <mergeCell ref="G34:G44"/>
-    <mergeCell ref="H34:H44"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A110:A119"/>
-    <mergeCell ref="B110:B119"/>
-    <mergeCell ref="C110:C119"/>
-    <mergeCell ref="D110:D119"/>
-    <mergeCell ref="G110:G119"/>
-    <mergeCell ref="H110:H119"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H76:H83"/>
+    <mergeCell ref="J76:J83"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="G84:G91"/>
+    <mergeCell ref="H84:H91"/>
+    <mergeCell ref="J84:J91"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="D76:D83"/>
+    <mergeCell ref="G76:G83"/>
+    <mergeCell ref="G104:G109"/>
+    <mergeCell ref="H104:H109"/>
+    <mergeCell ref="J104:J109"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="D104:D109"/>
+    <mergeCell ref="H92:H99"/>
+    <mergeCell ref="B92:B103"/>
+    <mergeCell ref="C92:C103"/>
+    <mergeCell ref="D92:D103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="G92:G99"/>
+    <mergeCell ref="A92:A103"/>
+    <mergeCell ref="A148:A159"/>
+    <mergeCell ref="B148:B159"/>
+    <mergeCell ref="C148:C159"/>
+    <mergeCell ref="D148:D159"/>
+    <mergeCell ref="F148:F159"/>
+    <mergeCell ref="G148:G159"/>
+    <mergeCell ref="H148:H159"/>
+    <mergeCell ref="J148:J159"/>
+    <mergeCell ref="A120:A129"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="C120:C129"/>
+    <mergeCell ref="D120:D129"/>
+    <mergeCell ref="G120:G129"/>
+    <mergeCell ref="H120:H129"/>
+    <mergeCell ref="J120:J129"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="B130:B137"/>
+    <mergeCell ref="C130:C137"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="G130:G137"/>
+    <mergeCell ref="H130:H137"/>
+    <mergeCell ref="J130:J137"/>
+    <mergeCell ref="H138:H147"/>
     <mergeCell ref="J138:J147"/>
-    <mergeCell ref="A138:A147"/>
-    <mergeCell ref="B138:B147"/>
-    <mergeCell ref="C138:C147"/>
-    <mergeCell ref="D138:D147"/>
-    <mergeCell ref="G138:G147"/>
-    <mergeCell ref="A202:A215"/>
-    <mergeCell ref="B202:B215"/>
-    <mergeCell ref="C202:C215"/>
-    <mergeCell ref="D202:D215"/>
-    <mergeCell ref="F202:F215"/>
-    <mergeCell ref="G202:G215"/>
-    <mergeCell ref="H202:H215"/>
-    <mergeCell ref="J202:J215"/>
-    <mergeCell ref="A160:A169"/>
-    <mergeCell ref="B160:B169"/>
-    <mergeCell ref="C160:C169"/>
-    <mergeCell ref="D160:D169"/>
-    <mergeCell ref="F160:F169"/>
-    <mergeCell ref="G160:G169"/>
-    <mergeCell ref="H160:H169"/>
-    <mergeCell ref="J160:J169"/>
-    <mergeCell ref="A170:A179"/>
-    <mergeCell ref="B170:B179"/>
+    <mergeCell ref="C170:C179"/>
+    <mergeCell ref="D170:D179"/>
+    <mergeCell ref="F170:F179"/>
+    <mergeCell ref="G170:G179"/>
+    <mergeCell ref="H170:H179"/>
+    <mergeCell ref="J170:J179"/>
+    <mergeCell ref="A194:A201"/>
+    <mergeCell ref="B194:B201"/>
+    <mergeCell ref="C194:C201"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="F194:F201"/>
+    <mergeCell ref="G194:G201"/>
+    <mergeCell ref="H194:H201"/>
+    <mergeCell ref="J194:J201"/>
+    <mergeCell ref="A180:A193"/>
+    <mergeCell ref="B180:B193"/>
+    <mergeCell ref="C180:C193"/>
+    <mergeCell ref="D180:D193"/>
+    <mergeCell ref="F180:F193"/>
+    <mergeCell ref="G180:G193"/>
+    <mergeCell ref="H180:H193"/>
+    <mergeCell ref="J180:J193"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I44"/>
+    <mergeCell ref="I45:I55"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="I60:I67"/>
+    <mergeCell ref="I68:I75"/>
+    <mergeCell ref="I76:I83"/>
+    <mergeCell ref="I84:I91"/>
+    <mergeCell ref="I92:I103"/>
+    <mergeCell ref="J92:J103"/>
+    <mergeCell ref="I104:I109"/>
+    <mergeCell ref="I110:I119"/>
+    <mergeCell ref="J110:J119"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="I202:I215"/>
+    <mergeCell ref="I120:I129"/>
+    <mergeCell ref="I130:I137"/>
+    <mergeCell ref="I138:I147"/>
+    <mergeCell ref="I148:I159"/>
+    <mergeCell ref="I160:I169"/>
+    <mergeCell ref="I170:I179"/>
+    <mergeCell ref="I180:I193"/>
+    <mergeCell ref="I194:I201"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Test suite/TestCases.xlsx
+++ b/Test suite/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Assesment\Gmail\Gmail\Test suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707CE8F-FE50-48A5-902C-01B7F2235ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D3EB8-F749-4675-9AAD-1F3B6680EA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FEB9EC7D-418F-4C11-B460-38352BB5E63D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="263">
   <si>
     <t>Project Name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Gmail</t>
   </si>
   <si>
-    <t>Nilesh</t>
-  </si>
-  <si>
     <t>US010_Compose mail</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>verify the text appears as separated by bar called quote</t>
   </si>
   <si>
-    <t>To check quote and remove formatting options in more formatting options dropdown</t>
-  </si>
-  <si>
     <t>TS_0019</t>
   </si>
   <si>
@@ -367,18 +361,12 @@
     <t>TC_0021</t>
   </si>
   <si>
-    <t>To check size dropdown</t>
-  </si>
-  <si>
     <t>TS_0022</t>
   </si>
   <si>
     <t>TC_0022</t>
   </si>
   <si>
-    <t>To check font dropdown</t>
-  </si>
-  <si>
     <t>TS_0023</t>
   </si>
   <si>
@@ -616,9 +604,6 @@
     <t>When user click on strikethrough option</t>
   </si>
   <si>
-    <t>When user verify the text appears as strikethrough</t>
-  </si>
-  <si>
     <t xml:space="preserve">When user Select the strikethrough text </t>
   </si>
   <si>
@@ -773,6 +758,75 @@
   </si>
   <si>
     <t>med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to enter multiple email ids and get suggestions for 'To', 'Cc', and 'Bcc' sections </t>
+  </si>
+  <si>
+    <t>User is able to write subject in mail box</t>
+  </si>
+  <si>
+    <t>user is able to type in mail body and make it  bold and reverse it</t>
+  </si>
+  <si>
+    <t>user is able type in mail body and make it  Italic and reverse</t>
+  </si>
+  <si>
+    <t>user is able to type in mail body and make underline and reverse it</t>
+  </si>
+  <si>
+    <t>user is able to type in mail body and change text color</t>
+  </si>
+  <si>
+    <t>User is able to use align option and align text left, centre and right</t>
+  </si>
+  <si>
+    <t>User is able to create number list and cancel it</t>
+  </si>
+  <si>
+    <t>Then user verify the text appears as strikethrough</t>
+  </si>
+  <si>
+    <t>User is able to write strikethrough text and reverse it to normal text</t>
+  </si>
+  <si>
+    <t>To check quote option and remove formatting options in more formatting options dropdown</t>
+  </si>
+  <si>
+    <t>User is able to quote typed text and remove the quote using remove formatting option</t>
+  </si>
+  <si>
+    <t>User is able to use indent more and indent less formatting options and change the indent as more or less as required</t>
+  </si>
+  <si>
+    <t>User is able to create bulleted text and exit from it</t>
+  </si>
+  <si>
+    <t>To check size dropdown by selecting small, normal, large and huge options</t>
+  </si>
+  <si>
+    <t>User is able to select all 4 sizes and text changes accordingly</t>
+  </si>
+  <si>
+    <t>To check font dropdown for all fonts</t>
+  </si>
+  <si>
+    <t>User is able to select all fonts in the dropdown and text changes according to selected font</t>
+  </si>
+  <si>
+    <t>When user selects undo option the change is reversed and when he selects redo the reversed change is brought back to effect</t>
+  </si>
+  <si>
+    <t>Mail is delivered to intended recipients and the mail is listed in sent mail section</t>
+  </si>
+  <si>
+    <t>The unsent mail is listed in drafts when user closes the new message frame</t>
+  </si>
+  <si>
+    <t>Mail is delivered to intended non-gmail recipients and the mail is listed in sent mail section</t>
+  </si>
+  <si>
+    <t>Nilesh G</t>
   </si>
 </sst>
 </file>
@@ -946,6 +1000,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,18 +1020,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,27 +1031,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,6 +1040,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1014,6 +1056,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1332,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7FDCB6-9A4D-47E9-8727-FF4A46E268E6}">
   <dimension ref="A1:L215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1365,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -1374,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="D3" s="10"/>
     </row>
@@ -1383,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1403,3729 +1457,3798 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+      <c r="G9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="B11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="32" t="s">
+      <c r="D11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="32" t="s">
-        <v>24</v>
-      </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="21" t="s">
-        <v>243</v>
+      <c r="I11" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="35"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="35"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="29"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="35"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="36"/>
       <c r="H15" s="30"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="30"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>33</v>
+      <c r="A16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="32" t="s">
-        <v>25</v>
+      <c r="G16" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="H16" s="28"/>
-      <c r="I16" s="21" t="s">
-        <v>243</v>
+      <c r="I16" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="36"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="30"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>46</v>
+      <c r="A18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="32" t="s">
-        <v>41</v>
+      <c r="G18" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="H18" s="28"/>
-      <c r="I18" s="21" t="s">
-        <v>243</v>
+      <c r="I18" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="35"/>
       <c r="H19" s="29"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="35"/>
       <c r="H20" s="29"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="29"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="36"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="23"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="30"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>36</v>
+      <c r="A22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="32" t="s">
-        <v>47</v>
+      <c r="G22" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="H22" s="28"/>
-      <c r="I22" s="21" t="s">
-        <v>243</v>
+      <c r="I22" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="35"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="29"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="35"/>
       <c r="H24" s="29"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="29"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="36"/>
       <c r="H25" s="30"/>
-      <c r="I25" s="23"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="30"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>46</v>
+      <c r="A26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="32" t="s">
-        <v>42</v>
+      <c r="G26" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="H26" s="28"/>
-      <c r="I26" s="21" t="s">
-        <v>243</v>
+      <c r="I26" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="35"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="22"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="29"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="35"/>
       <c r="H28" s="29"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="29"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="36"/>
       <c r="H29" s="30"/>
-      <c r="I29" s="23"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="30"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="D30" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="21" t="s">
-        <v>243</v>
+      <c r="I30" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="35"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="22"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="29"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="35"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="22"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="29"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="23"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="36"/>
       <c r="H33" s="30"/>
-      <c r="I33" s="23"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="30"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>22</v>
+      <c r="D34" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="32" t="s">
-        <v>54</v>
+      <c r="G34" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="H34" s="28"/>
-      <c r="I34" s="21" t="s">
-        <v>242</v>
+      <c r="I34" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="35"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="22"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="29"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="35"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="22"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="29"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="35"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="22"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="29"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="35"/>
       <c r="H38" s="29"/>
-      <c r="I38" s="22"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="29"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="35"/>
       <c r="H39" s="29"/>
-      <c r="I39" s="22"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="29"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="24"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="35"/>
       <c r="H40" s="29"/>
-      <c r="I40" s="22"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="29"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="35"/>
       <c r="H41" s="29"/>
-      <c r="I41" s="22"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="29"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="29"/>
-      <c r="I42" s="22"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="29"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="24"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="35"/>
       <c r="H43" s="29"/>
-      <c r="I43" s="22"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="29"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="24"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="36"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="23"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="30"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="37" t="s">
+      <c r="A45" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>22</v>
+      <c r="D45" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="J45" s="21"/>
+        <v>123</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" s="25"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="24"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="G46" s="35"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="24"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+        <v>52</v>
+      </c>
+      <c r="G47" s="35"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="24"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
+        <v>148</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="24"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="G50" s="35"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="24"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
+        <v>149</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="24"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+        <v>63</v>
+      </c>
+      <c r="G53" s="35"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="24"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="24"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F55" s="12"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="27" t="s">
+      <c r="A56" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>22</v>
+      <c r="D56" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F56" s="12"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="J56" s="21"/>
+      <c r="G56" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J56" s="25"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="G57" s="35"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="24"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F58" s="12"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="24"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F59" s="12"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
     </row>
     <row r="60" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>22</v>
+      <c r="C60" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F60" s="12"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21" t="s">
+      <c r="G60" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="J60" s="21"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J60" s="25"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F61" s="12"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="22"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="G62" s="35"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="22"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F63" s="12"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="22"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F64" s="12"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="22"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F65" s="12"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="22"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="23"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="25"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>22</v>
+      <c r="C68" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F68" s="12"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21" t="s">
+      <c r="G68" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="J68" s="21"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J68" s="25"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="22"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="25"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F69" s="12"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="22"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="25"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="G70" s="35"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="22"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="25"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F71" s="12"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="22"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="25"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F72" s="12"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="22"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F73" s="12"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="22"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="25"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F74" s="12"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="23"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="25"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F75" s="12"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>22</v>
+      <c r="A76" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F76" s="12"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J76" s="21"/>
+      <c r="G76" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J76" s="25"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="22"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="25"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F77" s="12"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="22"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
+        <v>80</v>
+      </c>
+      <c r="G78" s="35"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="22"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="25"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F79" s="12"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="22"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="25"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F80" s="12"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="22"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="22"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="25"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F82" s="12"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="23"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="25"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F83" s="12"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>22</v>
+      <c r="A84" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J84" s="21"/>
+      <c r="G84" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J84" s="25"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="22"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="25"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="22"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="25"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="G86" s="35"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="22"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="25"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="22"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="25"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="22"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="25"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="22"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="25"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="23"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="25"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="24"/>
       <c r="E91" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F91" s="12"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
     </row>
     <row r="92" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>22</v>
+      <c r="A92" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F92" s="12"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J92" s="21"/>
+      <c r="G92" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J92" s="25"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="24"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="25"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="24"/>
       <c r="E93" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F93" s="12"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="24"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="25"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="24"/>
       <c r="E94" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="G94" s="35"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="24"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="25"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="24"/>
       <c r="E95" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F95" s="12"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="24"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="25"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F96" s="12"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="24"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="25"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="24"/>
       <c r="E97" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F97" s="12"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="24"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="25"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="24"/>
       <c r="E98" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F98" s="12"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="22"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="24"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="25"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="24"/>
       <c r="E99" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F99" s="12"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="24"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="25"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="24"/>
       <c r="E100" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F100" s="12"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="24"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="25"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="24"/>
       <c r="E101" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F101" s="12"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="24"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="25"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="24"/>
       <c r="E102" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F102" s="12"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="24"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="25"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F103" s="12"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
     </row>
     <row r="104" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>22</v>
+      <c r="C104" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F104" s="12"/>
-      <c r="G104" s="21"/>
+      <c r="G104" s="34" t="s">
+        <v>247</v>
+      </c>
       <c r="H104" s="28"/>
-      <c r="I104" s="21" t="s">
-        <v>243</v>
+      <c r="I104" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="J104" s="28"/>
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="22"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="22"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="26"/>
       <c r="D105" s="35"/>
       <c r="E105" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F105" s="12"/>
-      <c r="G105" s="22"/>
+      <c r="G105" s="35"/>
       <c r="H105" s="29"/>
-      <c r="I105" s="22"/>
+      <c r="I105" s="26"/>
       <c r="J105" s="29"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="22"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="22"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="26"/>
       <c r="D106" s="35"/>
       <c r="E106" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F106" s="12"/>
-      <c r="G106" s="22"/>
+      <c r="G106" s="35"/>
       <c r="H106" s="29"/>
-      <c r="I106" s="22"/>
+      <c r="I106" s="26"/>
       <c r="J106" s="29"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="22"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="22"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="26"/>
       <c r="D107" s="35"/>
       <c r="E107" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F107" s="12"/>
-      <c r="G107" s="22"/>
+      <c r="G107" s="35"/>
       <c r="H107" s="29"/>
-      <c r="I107" s="22"/>
+      <c r="I107" s="26"/>
       <c r="J107" s="29"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="22"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="22"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="26"/>
       <c r="D108" s="35"/>
       <c r="E108" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F108" s="12"/>
-      <c r="G108" s="22"/>
+      <c r="G108" s="35"/>
       <c r="H108" s="29"/>
-      <c r="I108" s="22"/>
+      <c r="I108" s="26"/>
       <c r="J108" s="29"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="23"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="23"/>
+      <c r="A109" s="27"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="27"/>
       <c r="D109" s="36"/>
       <c r="E109" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F109" s="12"/>
-      <c r="G109" s="23"/>
+      <c r="G109" s="36"/>
       <c r="H109" s="30"/>
-      <c r="I109" s="23"/>
+      <c r="I109" s="27"/>
       <c r="J109" s="30"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
     </row>
     <row r="110" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="24" t="s">
+      <c r="A110" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B110" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>22</v>
+      <c r="C110" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F110" s="12"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J110" s="21"/>
+      <c r="G110" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J110" s="25"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="24"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="25"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="24"/>
       <c r="E111" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F111" s="12"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A112" s="24"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="25"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="24"/>
       <c r="E112" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F112" s="12"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A113" s="24"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="25"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="24"/>
       <c r="E113" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F113" s="12"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A114" s="24"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="25"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="24"/>
       <c r="E114" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F114" s="12"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A115" s="24"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="25"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="24"/>
       <c r="E115" s="3" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="F115" s="12"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A116" s="24"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="25"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="24"/>
       <c r="E116" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F116" s="12"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A117" s="24"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="25"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="24"/>
       <c r="E117" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A118" s="24"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="25"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="24"/>
       <c r="E118" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F118" s="12"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A119" s="24"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="25"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="24"/>
       <c r="E119" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F119" s="12"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A120" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>22</v>
+      <c r="A120" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F120" s="12"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J120" s="21"/>
+      <c r="G120" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J120" s="25"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A121" s="24"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="25"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="24"/>
       <c r="E121" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F121" s="12"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A122" s="24"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="25"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="24"/>
       <c r="E122" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F122" s="12"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="22"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A123" s="24"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="25"/>
+      <c r="A123" s="22"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="24"/>
       <c r="E123" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F123" s="12"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A124" s="24"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="25"/>
+      <c r="A124" s="22"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="24"/>
       <c r="E124" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F124" s="12"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A125" s="24"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="25"/>
+      <c r="A125" s="22"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="24"/>
       <c r="E125" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F125" s="12"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A126" s="24"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="25"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="24"/>
       <c r="E126" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F126" s="12"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A127" s="24"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="25"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="24"/>
       <c r="E127" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F127" s="12"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
       <c r="K127" s="12"/>
       <c r="L127" s="12"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A128" s="24"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="25"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="24"/>
       <c r="E128" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F128" s="12"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="22"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
       <c r="K128" s="12"/>
       <c r="L128" s="12"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A129" s="24"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="25"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="24"/>
       <c r="E129" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="23"/>
-      <c r="J129" s="23"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A130" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>22</v>
+      <c r="A130" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F130" s="12"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J130" s="21"/>
+      <c r="G130" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J130" s="25"/>
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A131" s="24"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="25"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="24"/>
       <c r="E131" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F131" s="12"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="22"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A132" s="24"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="25"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="24"/>
       <c r="E132" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F132" s="12"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="22"/>
-      <c r="J132" s="22"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A133" s="24"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="25"/>
+      <c r="A133" s="22"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="24"/>
       <c r="E133" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F133" s="12"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="22"/>
-      <c r="I133" s="22"/>
-      <c r="J133" s="22"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A134" s="24"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="25"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="24"/>
       <c r="E134" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F134" s="12"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
-      <c r="J134" s="22"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A135" s="24"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="25"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="24"/>
       <c r="E135" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F135" s="12"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
-      <c r="J135" s="22"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A136" s="24"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="25"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="24"/>
       <c r="E136" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="22"/>
-      <c r="H136" s="22"/>
-      <c r="I136" s="22"/>
-      <c r="J136" s="22"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A137" s="21"/>
-      <c r="B137" s="31"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="32"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="34"/>
       <c r="E137" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F137" s="19"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="22"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="22"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="26"/>
       <c r="K137" s="19"/>
       <c r="L137" s="19"/>
     </row>
     <row r="138" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C138" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>22</v>
+      <c r="A138" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F138" s="12"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J138" s="26"/>
+      <c r="G138" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H138" s="21"/>
+      <c r="I138" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J138" s="21"/>
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A139" s="24"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="25"/>
+      <c r="A139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="24"/>
       <c r="E139" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="24"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="22"/>
-      <c r="J139" s="26"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="21"/>
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A140" s="24"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="25"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="24"/>
       <c r="E140" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="24"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="22"/>
-      <c r="J140" s="26"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="21"/>
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A141" s="24"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="25"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="24"/>
       <c r="E141" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="24"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="22"/>
-      <c r="J141" s="26"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="21"/>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A142" s="24"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="25"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="24"/>
       <c r="E142" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="24"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="22"/>
-      <c r="J142" s="26"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="21"/>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A143" s="24"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="25"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="24"/>
       <c r="E143" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="24"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="22"/>
-      <c r="J143" s="26"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="21"/>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A144" s="24"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="25"/>
+      <c r="A144" s="22"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="24"/>
       <c r="E144" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="24"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="22"/>
-      <c r="J144" s="26"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="21"/>
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A145" s="24"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="25"/>
+      <c r="A145" s="22"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="24"/>
       <c r="E145" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="24"/>
-      <c r="H145" s="26"/>
-      <c r="I145" s="22"/>
-      <c r="J145" s="26"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="21"/>
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A146" s="24"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="25"/>
+      <c r="A146" s="22"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="24"/>
       <c r="E146" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="24"/>
-      <c r="H146" s="26"/>
-      <c r="I146" s="22"/>
-      <c r="J146" s="26"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="21"/>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A147" s="24"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="25"/>
+      <c r="A147" s="22"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="24"/>
       <c r="E147" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="24"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="26"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="21"/>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
     </row>
     <row r="148" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>22</v>
+      <c r="A148" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F148" s="26"/>
-      <c r="G148" s="26"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J148" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="F148" s="21"/>
+      <c r="G148" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="H148" s="21"/>
+      <c r="I148" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J148" s="21"/>
       <c r="K148" s="12"/>
       <c r="L148" s="12"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A149" s="24"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="25"/>
+      <c r="A149" s="22"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="24"/>
       <c r="E149" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F149" s="26"/>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="22"/>
-      <c r="J149" s="26"/>
+        <v>159</v>
+      </c>
+      <c r="F149" s="21"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="21"/>
       <c r="K149" s="12"/>
       <c r="L149" s="12"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A150" s="24"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="25"/>
+      <c r="A150" s="22"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="24"/>
       <c r="E150" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F150" s="26"/>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="22"/>
-      <c r="J150" s="26"/>
+        <v>203</v>
+      </c>
+      <c r="F150" s="21"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="21"/>
       <c r="K150" s="12"/>
       <c r="L150" s="12"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A151" s="24"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="25"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="24"/>
       <c r="E151" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F151" s="26"/>
-      <c r="G151" s="26"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="22"/>
-      <c r="J151" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="F151" s="21"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="21"/>
       <c r="K151" s="12"/>
       <c r="L151" s="12"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A152" s="24"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="25"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="24"/>
       <c r="E152" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F152" s="26"/>
-      <c r="G152" s="26"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="22"/>
-      <c r="J152" s="26"/>
+        <v>204</v>
+      </c>
+      <c r="F152" s="21"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="21"/>
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A153" s="24"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="25"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="24"/>
       <c r="E153" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F153" s="26"/>
-      <c r="G153" s="26"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="22"/>
-      <c r="J153" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="F153" s="21"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="21"/>
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A154" s="24"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="25"/>
+      <c r="A154" s="22"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="24"/>
       <c r="E154" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F154" s="26"/>
-      <c r="G154" s="26"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="22"/>
-      <c r="J154" s="26"/>
+        <v>205</v>
+      </c>
+      <c r="F154" s="21"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="21"/>
       <c r="K154" s="12"/>
       <c r="L154" s="12"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A155" s="24"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="25"/>
+      <c r="A155" s="22"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="24"/>
       <c r="E155" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F155" s="26"/>
-      <c r="G155" s="26"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="22"/>
-      <c r="J155" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="F155" s="21"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="21"/>
       <c r="K155" s="12"/>
       <c r="L155" s="12"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A156" s="24"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="25"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="24"/>
       <c r="E156" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F156" s="26"/>
-      <c r="G156" s="26"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="22"/>
-      <c r="J156" s="26"/>
+        <v>206</v>
+      </c>
+      <c r="F156" s="21"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="21"/>
       <c r="K156" s="12"/>
       <c r="L156" s="12"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A157" s="24"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="25"/>
+      <c r="A157" s="22"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="24"/>
       <c r="E157" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F157" s="26"/>
-      <c r="G157" s="26"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="22"/>
-      <c r="J157" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="F157" s="21"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="21"/>
       <c r="K157" s="12"/>
       <c r="L157" s="12"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A158" s="24"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="25"/>
+      <c r="A158" s="22"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="24"/>
       <c r="E158" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F158" s="26"/>
-      <c r="G158" s="26"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="22"/>
-      <c r="J158" s="26"/>
+        <v>207</v>
+      </c>
+      <c r="F158" s="21"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="21"/>
       <c r="K158" s="12"/>
       <c r="L158" s="12"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A159" s="24"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="25"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="24"/>
       <c r="E159" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F159" s="26"/>
-      <c r="G159" s="26"/>
-      <c r="H159" s="26"/>
-      <c r="I159" s="23"/>
-      <c r="J159" s="26"/>
+        <v>151</v>
+      </c>
+      <c r="F159" s="21"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="21"/>
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A160" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B160" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C160" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>22</v>
+      <c r="A160" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D160" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F160" s="26"/>
-      <c r="G160" s="26"/>
-      <c r="H160" s="26"/>
-      <c r="I160" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="J160" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="F160" s="21"/>
+      <c r="G160" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H160" s="21"/>
+      <c r="I160" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J160" s="21"/>
       <c r="K160" s="12"/>
       <c r="L160" s="12"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A161" s="24"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="25"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="24"/>
       <c r="E161" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F161" s="26"/>
-      <c r="G161" s="26"/>
-      <c r="H161" s="26"/>
-      <c r="I161" s="22"/>
-      <c r="J161" s="26"/>
+        <v>159</v>
+      </c>
+      <c r="F161" s="21"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="21"/>
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A162" s="24"/>
-      <c r="B162" s="27"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="25"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="24"/>
       <c r="E162" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F162" s="26"/>
-      <c r="G162" s="26"/>
-      <c r="H162" s="26"/>
-      <c r="I162" s="22"/>
-      <c r="J162" s="26"/>
+        <v>208</v>
+      </c>
+      <c r="F162" s="21"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="21"/>
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A163" s="24"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="25"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="24"/>
       <c r="E163" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F163" s="26"/>
-      <c r="G163" s="26"/>
-      <c r="H163" s="26"/>
-      <c r="I163" s="22"/>
-      <c r="J163" s="26"/>
+        <v>209</v>
+      </c>
+      <c r="F163" s="21"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="21"/>
       <c r="K163" s="12"/>
       <c r="L163" s="12"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A164" s="24"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="25"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="24"/>
       <c r="E164" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F164" s="26"/>
-      <c r="G164" s="26"/>
-      <c r="H164" s="26"/>
-      <c r="I164" s="22"/>
-      <c r="J164" s="26"/>
+        <v>210</v>
+      </c>
+      <c r="F164" s="21"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="26"/>
+      <c r="J164" s="21"/>
       <c r="K164" s="12"/>
       <c r="L164" s="12"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="24"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="25"/>
+      <c r="A165" s="22"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="24"/>
       <c r="E165" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F165" s="26"/>
-      <c r="G165" s="26"/>
-      <c r="H165" s="26"/>
-      <c r="I165" s="22"/>
-      <c r="J165" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="F165" s="21"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="26"/>
+      <c r="J165" s="21"/>
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A166" s="24"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="24"/>
-      <c r="D166" s="25"/>
+      <c r="A166" s="22"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="24"/>
       <c r="E166" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F166" s="26"/>
-      <c r="G166" s="26"/>
-      <c r="H166" s="26"/>
-      <c r="I166" s="22"/>
-      <c r="J166" s="26"/>
+        <v>210</v>
+      </c>
+      <c r="F166" s="21"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="21"/>
+      <c r="I166" s="26"/>
+      <c r="J166" s="21"/>
       <c r="K166" s="12"/>
       <c r="L166" s="12"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A167" s="24"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="25"/>
+      <c r="A167" s="22"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="24"/>
       <c r="E167" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F167" s="26"/>
-      <c r="G167" s="26"/>
-      <c r="H167" s="26"/>
-      <c r="I167" s="22"/>
-      <c r="J167" s="26"/>
+        <v>211</v>
+      </c>
+      <c r="F167" s="21"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="26"/>
+      <c r="J167" s="21"/>
       <c r="K167" s="12"/>
       <c r="L167" s="12"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A168" s="24"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="25"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="24"/>
       <c r="E168" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F168" s="26"/>
-      <c r="G168" s="26"/>
-      <c r="H168" s="26"/>
-      <c r="I168" s="22"/>
-      <c r="J168" s="26"/>
+        <v>212</v>
+      </c>
+      <c r="F168" s="21"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="21"/>
+      <c r="I168" s="26"/>
+      <c r="J168" s="21"/>
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A169" s="24"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="25"/>
+      <c r="A169" s="22"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="24"/>
       <c r="E169" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F169" s="26"/>
-      <c r="G169" s="26"/>
-      <c r="H169" s="26"/>
-      <c r="I169" s="23"/>
-      <c r="J169" s="26"/>
+        <v>151</v>
+      </c>
+      <c r="F169" s="21"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="21"/>
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A170" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B170" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C170" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D170" s="25" t="s">
-        <v>22</v>
+      <c r="A170" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F170" s="26"/>
-      <c r="G170" s="26"/>
-      <c r="H170" s="26"/>
-      <c r="I170" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="J170" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="F170" s="21"/>
+      <c r="G170" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H170" s="21"/>
+      <c r="I170" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J170" s="21"/>
       <c r="K170" s="12"/>
       <c r="L170" s="12"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A171" s="24"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="25"/>
+      <c r="A171" s="22"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="24"/>
       <c r="E171" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26"/>
-      <c r="H171" s="26"/>
-      <c r="I171" s="22"/>
-      <c r="J171" s="26"/>
+        <v>159</v>
+      </c>
+      <c r="F171" s="21"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="21"/>
+      <c r="I171" s="26"/>
+      <c r="J171" s="21"/>
       <c r="K171" s="12"/>
       <c r="L171" s="12"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A172" s="24"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="24"/>
-      <c r="D172" s="25"/>
+      <c r="A172" s="22"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="24"/>
       <c r="E172" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="22"/>
-      <c r="J172" s="26"/>
+        <v>213</v>
+      </c>
+      <c r="F172" s="21"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="21"/>
+      <c r="I172" s="26"/>
+      <c r="J172" s="21"/>
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A173" s="24"/>
-      <c r="B173" s="27"/>
-      <c r="C173" s="24"/>
-      <c r="D173" s="25"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="24"/>
       <c r="E173" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F173" s="26"/>
-      <c r="G173" s="26"/>
-      <c r="H173" s="26"/>
-      <c r="I173" s="22"/>
-      <c r="J173" s="26"/>
+        <v>214</v>
+      </c>
+      <c r="F173" s="21"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="21"/>
+      <c r="I173" s="26"/>
+      <c r="J173" s="21"/>
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A174" s="24"/>
-      <c r="B174" s="27"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="25"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="24"/>
       <c r="E174" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="22"/>
-      <c r="J174" s="26"/>
+        <v>215</v>
+      </c>
+      <c r="F174" s="21"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="26"/>
+      <c r="J174" s="21"/>
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A175" s="24"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="25"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="24"/>
       <c r="E175" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26"/>
-      <c r="H175" s="26"/>
-      <c r="I175" s="22"/>
-      <c r="J175" s="26"/>
+        <v>216</v>
+      </c>
+      <c r="F175" s="21"/>
+      <c r="G175" s="24"/>
+      <c r="H175" s="21"/>
+      <c r="I175" s="26"/>
+      <c r="J175" s="21"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A176" s="24"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="25"/>
+      <c r="A176" s="22"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="24"/>
       <c r="E176" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="22"/>
-      <c r="J176" s="26"/>
+        <v>217</v>
+      </c>
+      <c r="F176" s="21"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="26"/>
+      <c r="J176" s="21"/>
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A177" s="24"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="25"/>
+      <c r="A177" s="22"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="24"/>
       <c r="E177" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="22"/>
-      <c r="J177" s="26"/>
+        <v>218</v>
+      </c>
+      <c r="F177" s="21"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="21"/>
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A178" s="24"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="25"/>
+      <c r="A178" s="22"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="24"/>
       <c r="E178" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F178" s="26"/>
-      <c r="G178" s="26"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="22"/>
-      <c r="J178" s="26"/>
+        <v>219</v>
+      </c>
+      <c r="F178" s="21"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="21"/>
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A179" s="24"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="25"/>
+      <c r="A179" s="22"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="24"/>
       <c r="E179" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26"/>
-      <c r="H179" s="26"/>
-      <c r="I179" s="23"/>
-      <c r="J179" s="26"/>
+        <v>151</v>
+      </c>
+      <c r="F179" s="21"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="21"/>
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
     </row>
     <row r="180" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B180" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C180" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D180" s="25" t="s">
-        <v>22</v>
+      <c r="A180" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26"/>
-      <c r="H180" s="26"/>
-      <c r="I180" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="J180" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="F180" s="21"/>
+      <c r="G180" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="H180" s="21"/>
+      <c r="I180" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J180" s="21"/>
       <c r="K180" s="12"/>
       <c r="L180" s="12"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A181" s="24"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="25"/>
+      <c r="A181" s="22"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="24"/>
       <c r="E181" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F181" s="26"/>
-      <c r="G181" s="26"/>
-      <c r="H181" s="26"/>
-      <c r="I181" s="22"/>
-      <c r="J181" s="26"/>
+        <v>145</v>
+      </c>
+      <c r="F181" s="21"/>
+      <c r="G181" s="24"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="26"/>
+      <c r="J181" s="21"/>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A182" s="24"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="25"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="24"/>
       <c r="E182" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F182" s="26"/>
-      <c r="G182" s="26"/>
-      <c r="H182" s="26"/>
-      <c r="I182" s="22"/>
-      <c r="J182" s="26"/>
+        <v>220</v>
+      </c>
+      <c r="F182" s="21"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="26"/>
+      <c r="J182" s="21"/>
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A183" s="24"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="25"/>
+      <c r="A183" s="22"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="24"/>
       <c r="E183" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F183" s="26"/>
-      <c r="G183" s="26"/>
-      <c r="H183" s="26"/>
-      <c r="I183" s="22"/>
-      <c r="J183" s="26"/>
+        <v>221</v>
+      </c>
+      <c r="F183" s="21"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="26"/>
+      <c r="J183" s="21"/>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A184" s="24"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="25"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="24"/>
       <c r="E184" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F184" s="26"/>
-      <c r="G184" s="26"/>
-      <c r="H184" s="26"/>
-      <c r="I184" s="22"/>
-      <c r="J184" s="26"/>
+        <v>220</v>
+      </c>
+      <c r="F184" s="21"/>
+      <c r="G184" s="24"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="26"/>
+      <c r="J184" s="21"/>
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A185" s="24"/>
-      <c r="B185" s="27"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="25"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="24"/>
       <c r="E185" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F185" s="26"/>
-      <c r="G185" s="26"/>
-      <c r="H185" s="26"/>
-      <c r="I185" s="22"/>
-      <c r="J185" s="26"/>
+        <v>222</v>
+      </c>
+      <c r="F185" s="21"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="21"/>
+      <c r="I185" s="26"/>
+      <c r="J185" s="21"/>
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A186" s="24"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="25"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="24"/>
       <c r="E186" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F186" s="26"/>
-      <c r="G186" s="26"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="22"/>
-      <c r="J186" s="26"/>
+        <v>220</v>
+      </c>
+      <c r="F186" s="21"/>
+      <c r="G186" s="24"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="26"/>
+      <c r="J186" s="21"/>
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A187" s="24"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="25"/>
+      <c r="A187" s="22"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="24"/>
       <c r="E187" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F187" s="26"/>
-      <c r="G187" s="26"/>
-      <c r="H187" s="26"/>
-      <c r="I187" s="22"/>
-      <c r="J187" s="26"/>
+        <v>223</v>
+      </c>
+      <c r="F187" s="21"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="26"/>
+      <c r="J187" s="21"/>
       <c r="K187" s="12"/>
       <c r="L187" s="12"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A188" s="24"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="25"/>
+      <c r="A188" s="22"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="24"/>
       <c r="E188" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F188" s="26"/>
-      <c r="G188" s="26"/>
-      <c r="H188" s="26"/>
-      <c r="I188" s="22"/>
-      <c r="J188" s="26"/>
+        <v>224</v>
+      </c>
+      <c r="F188" s="21"/>
+      <c r="G188" s="24"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="26"/>
+      <c r="J188" s="21"/>
       <c r="K188" s="12"/>
       <c r="L188" s="12"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A189" s="24"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="25"/>
+      <c r="A189" s="22"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="24"/>
       <c r="E189" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F189" s="26"/>
-      <c r="G189" s="26"/>
-      <c r="H189" s="26"/>
-      <c r="I189" s="22"/>
-      <c r="J189" s="26"/>
+        <v>225</v>
+      </c>
+      <c r="F189" s="21"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="21"/>
+      <c r="I189" s="26"/>
+      <c r="J189" s="21"/>
       <c r="K189" s="12"/>
       <c r="L189" s="12"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A190" s="24"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="25"/>
+      <c r="A190" s="22"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="24"/>
       <c r="E190" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F190" s="26"/>
-      <c r="G190" s="26"/>
-      <c r="H190" s="26"/>
-      <c r="I190" s="22"/>
-      <c r="J190" s="26"/>
+        <v>226</v>
+      </c>
+      <c r="F190" s="21"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="26"/>
+      <c r="J190" s="21"/>
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A191" s="24"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="25"/>
+      <c r="A191" s="22"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="24"/>
       <c r="E191" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F191" s="26"/>
-      <c r="G191" s="26"/>
-      <c r="H191" s="26"/>
-      <c r="I191" s="22"/>
-      <c r="J191" s="26"/>
+        <v>227</v>
+      </c>
+      <c r="F191" s="21"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="21"/>
+      <c r="I191" s="26"/>
+      <c r="J191" s="21"/>
       <c r="K191" s="12"/>
       <c r="L191" s="12"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A192" s="24"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="25"/>
+      <c r="A192" s="22"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="24"/>
       <c r="E192" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F192" s="26"/>
-      <c r="G192" s="26"/>
-      <c r="H192" s="26"/>
-      <c r="I192" s="22"/>
-      <c r="J192" s="26"/>
+        <v>228</v>
+      </c>
+      <c r="F192" s="21"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="21"/>
+      <c r="I192" s="26"/>
+      <c r="J192" s="21"/>
       <c r="K192" s="12"/>
       <c r="L192" s="12"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A193" s="24"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="24"/>
-      <c r="D193" s="25"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="24"/>
       <c r="E193" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F193" s="26"/>
-      <c r="G193" s="26"/>
-      <c r="H193" s="26"/>
-      <c r="I193" s="23"/>
-      <c r="J193" s="26"/>
+        <v>229</v>
+      </c>
+      <c r="F193" s="21"/>
+      <c r="G193" s="24"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="21"/>
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A194" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B194" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C194" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D194" s="25" t="s">
-        <v>22</v>
+      <c r="A194" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D194" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F194" s="28"/>
-      <c r="G194" s="28"/>
+      <c r="G194" s="34" t="s">
+        <v>260</v>
+      </c>
       <c r="H194" s="28"/>
-      <c r="I194" s="21" t="s">
-        <v>242</v>
+      <c r="I194" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="J194" s="28"/>
       <c r="K194" s="20"/>
       <c r="L194" s="20"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A195" s="24"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="25"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="24"/>
       <c r="E195" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F195" s="29"/>
-      <c r="G195" s="29"/>
+      <c r="G195" s="35"/>
       <c r="H195" s="29"/>
-      <c r="I195" s="22"/>
+      <c r="I195" s="26"/>
       <c r="J195" s="29"/>
       <c r="K195" s="20"/>
       <c r="L195" s="20"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A196" s="24"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="24"/>
-      <c r="D196" s="25"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="24"/>
       <c r="E196" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F196" s="29"/>
-      <c r="G196" s="29"/>
+      <c r="G196" s="35"/>
       <c r="H196" s="29"/>
-      <c r="I196" s="22"/>
+      <c r="I196" s="26"/>
       <c r="J196" s="29"/>
       <c r="K196" s="20"/>
       <c r="L196" s="20"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A197" s="24"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="24"/>
-      <c r="D197" s="25"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="24"/>
       <c r="E197" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F197" s="29"/>
-      <c r="G197" s="29"/>
+      <c r="G197" s="35"/>
       <c r="H197" s="29"/>
-      <c r="I197" s="22"/>
+      <c r="I197" s="26"/>
       <c r="J197" s="29"/>
       <c r="K197" s="20"/>
       <c r="L197" s="20"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A198" s="24"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="24"/>
-      <c r="D198" s="25"/>
+      <c r="A198" s="22"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="24"/>
       <c r="E198" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F198" s="29"/>
-      <c r="G198" s="29"/>
+      <c r="G198" s="35"/>
       <c r="H198" s="29"/>
-      <c r="I198" s="22"/>
+      <c r="I198" s="26"/>
       <c r="J198" s="29"/>
       <c r="K198" s="20"/>
       <c r="L198" s="20"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A199" s="24"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="24"/>
-      <c r="D199" s="25"/>
+      <c r="A199" s="22"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="24"/>
       <c r="E199" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F199" s="29"/>
-      <c r="G199" s="29"/>
+      <c r="G199" s="35"/>
       <c r="H199" s="29"/>
-      <c r="I199" s="22"/>
+      <c r="I199" s="26"/>
       <c r="J199" s="29"/>
       <c r="K199" s="20"/>
       <c r="L199" s="20"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A200" s="24"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="24"/>
-      <c r="D200" s="25"/>
+      <c r="A200" s="22"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="24"/>
       <c r="E200" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F200" s="29"/>
-      <c r="G200" s="29"/>
+      <c r="G200" s="35"/>
       <c r="H200" s="29"/>
-      <c r="I200" s="22"/>
+      <c r="I200" s="26"/>
       <c r="J200" s="29"/>
       <c r="K200" s="20"/>
       <c r="L200" s="20"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A201" s="24"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="24"/>
-      <c r="D201" s="25"/>
+      <c r="A201" s="22"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="24"/>
       <c r="E201" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F201" s="30"/>
-      <c r="G201" s="30"/>
+      <c r="G201" s="36"/>
       <c r="H201" s="30"/>
-      <c r="I201" s="23"/>
+      <c r="I201" s="27"/>
       <c r="J201" s="30"/>
       <c r="K201" s="20"/>
       <c r="L201" s="20"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A202" s="24" t="s">
+      <c r="A202" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D202" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B202" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D202" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F202" s="26"/>
-      <c r="G202" s="26"/>
-      <c r="H202" s="26"/>
-      <c r="I202" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="J202" s="26"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="H202" s="21"/>
+      <c r="I202" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J202" s="21"/>
       <c r="K202" s="12"/>
       <c r="L202" s="12"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A203" s="24"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="24"/>
-      <c r="D203" s="25"/>
+      <c r="A203" s="22"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="24"/>
       <c r="E203" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F203" s="26"/>
-      <c r="G203" s="26"/>
-      <c r="H203" s="26"/>
-      <c r="I203" s="22"/>
-      <c r="J203" s="26"/>
+        <v>145</v>
+      </c>
+      <c r="F203" s="21"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="21"/>
+      <c r="I203" s="26"/>
+      <c r="J203" s="21"/>
       <c r="K203" s="12"/>
       <c r="L203" s="12"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A204" s="24"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="24"/>
-      <c r="D204" s="25"/>
+      <c r="A204" s="22"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="24"/>
       <c r="E204" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F204" s="26"/>
-      <c r="G204" s="26"/>
-      <c r="H204" s="26"/>
-      <c r="I204" s="22"/>
-      <c r="J204" s="26"/>
+        <v>233</v>
+      </c>
+      <c r="F204" s="21"/>
+      <c r="G204" s="24"/>
+      <c r="H204" s="21"/>
+      <c r="I204" s="26"/>
+      <c r="J204" s="21"/>
       <c r="K204" s="12"/>
       <c r="L204" s="12"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A205" s="24"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="24"/>
-      <c r="D205" s="25"/>
+      <c r="A205" s="22"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="24"/>
       <c r="E205" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F205" s="26"/>
-      <c r="G205" s="26"/>
-      <c r="H205" s="26"/>
-      <c r="I205" s="22"/>
-      <c r="J205" s="26"/>
+        <v>221</v>
+      </c>
+      <c r="F205" s="21"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="26"/>
+      <c r="J205" s="21"/>
       <c r="K205" s="12"/>
       <c r="L205" s="12"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A206" s="24"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="24"/>
-      <c r="D206" s="25"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="24"/>
       <c r="E206" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F206" s="26"/>
-      <c r="G206" s="26"/>
-      <c r="H206" s="26"/>
-      <c r="I206" s="22"/>
-      <c r="J206" s="26"/>
+        <v>233</v>
+      </c>
+      <c r="F206" s="21"/>
+      <c r="G206" s="24"/>
+      <c r="H206" s="21"/>
+      <c r="I206" s="26"/>
+      <c r="J206" s="21"/>
       <c r="K206" s="12"/>
       <c r="L206" s="12"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A207" s="24"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="24"/>
-      <c r="D207" s="25"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="24"/>
       <c r="E207" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F207" s="26"/>
-      <c r="G207" s="26"/>
-      <c r="H207" s="26"/>
-      <c r="I207" s="22"/>
-      <c r="J207" s="26"/>
+        <v>222</v>
+      </c>
+      <c r="F207" s="21"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="26"/>
+      <c r="J207" s="21"/>
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A208" s="24"/>
-      <c r="B208" s="27"/>
-      <c r="C208" s="24"/>
-      <c r="D208" s="25"/>
+      <c r="A208" s="22"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="24"/>
       <c r="E208" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F208" s="26"/>
-      <c r="G208" s="26"/>
-      <c r="H208" s="26"/>
-      <c r="I208" s="22"/>
-      <c r="J208" s="26"/>
+        <v>233</v>
+      </c>
+      <c r="F208" s="21"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="21"/>
+      <c r="I208" s="26"/>
+      <c r="J208" s="21"/>
       <c r="K208" s="12"/>
       <c r="L208" s="12"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A209" s="24"/>
-      <c r="B209" s="27"/>
-      <c r="C209" s="24"/>
-      <c r="D209" s="25"/>
+      <c r="A209" s="22"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="24"/>
       <c r="E209" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F209" s="26"/>
-      <c r="G209" s="26"/>
-      <c r="H209" s="26"/>
-      <c r="I209" s="22"/>
-      <c r="J209" s="26"/>
+        <v>223</v>
+      </c>
+      <c r="F209" s="21"/>
+      <c r="G209" s="24"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="26"/>
+      <c r="J209" s="21"/>
       <c r="K209" s="12"/>
       <c r="L209" s="12"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A210" s="24"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="24"/>
-      <c r="D210" s="25"/>
+      <c r="A210" s="22"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="24"/>
       <c r="E210" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F210" s="26"/>
-      <c r="G210" s="26"/>
-      <c r="H210" s="26"/>
-      <c r="I210" s="22"/>
-      <c r="J210" s="26"/>
+        <v>224</v>
+      </c>
+      <c r="F210" s="21"/>
+      <c r="G210" s="24"/>
+      <c r="H210" s="21"/>
+      <c r="I210" s="26"/>
+      <c r="J210" s="21"/>
       <c r="K210" s="12"/>
       <c r="L210" s="12"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A211" s="24"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="24"/>
-      <c r="D211" s="25"/>
+      <c r="A211" s="22"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="24"/>
       <c r="E211" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F211" s="26"/>
-      <c r="G211" s="26"/>
-      <c r="H211" s="26"/>
-      <c r="I211" s="22"/>
-      <c r="J211" s="26"/>
+        <v>225</v>
+      </c>
+      <c r="F211" s="21"/>
+      <c r="G211" s="24"/>
+      <c r="H211" s="21"/>
+      <c r="I211" s="26"/>
+      <c r="J211" s="21"/>
       <c r="K211" s="12"/>
       <c r="L211" s="12"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A212" s="24"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="24"/>
-      <c r="D212" s="25"/>
+      <c r="A212" s="22"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="24"/>
       <c r="E212" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F212" s="26"/>
-      <c r="G212" s="26"/>
-      <c r="H212" s="26"/>
-      <c r="I212" s="22"/>
-      <c r="J212" s="26"/>
+        <v>235</v>
+      </c>
+      <c r="F212" s="21"/>
+      <c r="G212" s="24"/>
+      <c r="H212" s="21"/>
+      <c r="I212" s="26"/>
+      <c r="J212" s="21"/>
       <c r="K212" s="12"/>
       <c r="L212" s="12"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A213" s="24"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="24"/>
-      <c r="D213" s="25"/>
+      <c r="A213" s="22"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="24"/>
       <c r="E213" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F213" s="26"/>
-      <c r="G213" s="26"/>
-      <c r="H213" s="26"/>
-      <c r="I213" s="22"/>
-      <c r="J213" s="26"/>
+        <v>227</v>
+      </c>
+      <c r="F213" s="21"/>
+      <c r="G213" s="24"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="26"/>
+      <c r="J213" s="21"/>
       <c r="K213" s="12"/>
       <c r="L213" s="12"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A214" s="24"/>
-      <c r="B214" s="27"/>
-      <c r="C214" s="24"/>
-      <c r="D214" s="25"/>
+      <c r="A214" s="22"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="24"/>
       <c r="E214" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F214" s="26"/>
-      <c r="G214" s="26"/>
-      <c r="H214" s="26"/>
-      <c r="I214" s="22"/>
-      <c r="J214" s="26"/>
+        <v>228</v>
+      </c>
+      <c r="F214" s="21"/>
+      <c r="G214" s="24"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="26"/>
+      <c r="J214" s="21"/>
       <c r="K214" s="12"/>
       <c r="L214" s="12"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A215" s="24"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="24"/>
-      <c r="D215" s="25"/>
+      <c r="A215" s="22"/>
+      <c r="B215" s="23"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="24"/>
       <c r="E215" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F215" s="26"/>
-      <c r="G215" s="26"/>
-      <c r="H215" s="26"/>
-      <c r="I215" s="23"/>
-      <c r="J215" s="26"/>
+        <v>234</v>
+      </c>
+      <c r="F215" s="21"/>
+      <c r="G215" s="24"/>
+      <c r="H215" s="21"/>
+      <c r="I215" s="27"/>
+      <c r="J215" s="21"/>
       <c r="K215" s="12"/>
       <c r="L215" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:L8" xr:uid="{AC7FDCB6-9A4D-47E9-8727-FF4A46E268E6}"/>
-  <mergeCells count="218">
-    <mergeCell ref="H202:H215"/>
-    <mergeCell ref="J202:J215"/>
-    <mergeCell ref="A160:A169"/>
-    <mergeCell ref="B160:B169"/>
-    <mergeCell ref="C160:C169"/>
-    <mergeCell ref="D160:D169"/>
-    <mergeCell ref="F160:F169"/>
-    <mergeCell ref="G160:G169"/>
-    <mergeCell ref="H160:H169"/>
-    <mergeCell ref="J160:J169"/>
-    <mergeCell ref="A170:A179"/>
-    <mergeCell ref="B170:B179"/>
-    <mergeCell ref="A138:A147"/>
-    <mergeCell ref="B138:B147"/>
-    <mergeCell ref="C138:C147"/>
-    <mergeCell ref="D138:D147"/>
-    <mergeCell ref="G138:G147"/>
-    <mergeCell ref="A202:A215"/>
-    <mergeCell ref="B202:B215"/>
-    <mergeCell ref="C202:C215"/>
-    <mergeCell ref="D202:D215"/>
-    <mergeCell ref="F202:F215"/>
-    <mergeCell ref="G202:G215"/>
-    <mergeCell ref="H110:H119"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A110:A119"/>
-    <mergeCell ref="B110:B119"/>
-    <mergeCell ref="C110:C119"/>
-    <mergeCell ref="D110:D119"/>
-    <mergeCell ref="G110:G119"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
+  <mergeCells count="216">
+    <mergeCell ref="I202:I215"/>
+    <mergeCell ref="I120:I129"/>
+    <mergeCell ref="I130:I137"/>
+    <mergeCell ref="I138:I147"/>
+    <mergeCell ref="I148:I159"/>
+    <mergeCell ref="I160:I169"/>
+    <mergeCell ref="I170:I179"/>
+    <mergeCell ref="I180:I193"/>
+    <mergeCell ref="I194:I201"/>
+    <mergeCell ref="G180:G193"/>
+    <mergeCell ref="H180:H193"/>
+    <mergeCell ref="J180:J193"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I44"/>
+    <mergeCell ref="I45:I55"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="I60:I67"/>
+    <mergeCell ref="I68:I75"/>
+    <mergeCell ref="I76:I83"/>
+    <mergeCell ref="I84:I91"/>
+    <mergeCell ref="I92:I103"/>
+    <mergeCell ref="J92:J103"/>
+    <mergeCell ref="I104:I109"/>
+    <mergeCell ref="I110:I119"/>
+    <mergeCell ref="J110:J119"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="G92:G103"/>
+    <mergeCell ref="H148:H159"/>
+    <mergeCell ref="J148:J159"/>
+    <mergeCell ref="A120:A129"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="C120:C129"/>
+    <mergeCell ref="D120:D129"/>
+    <mergeCell ref="G120:G129"/>
+    <mergeCell ref="H120:H129"/>
+    <mergeCell ref="J120:J129"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="B130:B137"/>
+    <mergeCell ref="C130:C137"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="G130:G137"/>
+    <mergeCell ref="H130:H137"/>
+    <mergeCell ref="J130:J137"/>
+    <mergeCell ref="H138:H147"/>
+    <mergeCell ref="J138:J147"/>
+    <mergeCell ref="H104:H109"/>
+    <mergeCell ref="J104:J109"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="D104:D109"/>
+    <mergeCell ref="B92:B103"/>
+    <mergeCell ref="C92:C103"/>
+    <mergeCell ref="D92:D103"/>
+    <mergeCell ref="A92:A103"/>
+    <mergeCell ref="H92:H103"/>
+    <mergeCell ref="J76:J83"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="G84:G91"/>
+    <mergeCell ref="H84:H91"/>
+    <mergeCell ref="J84:J91"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="D76:D83"/>
+    <mergeCell ref="G76:G83"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="G60:G67"/>
+    <mergeCell ref="H60:H67"/>
+    <mergeCell ref="J60:J67"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="H68:H75"/>
+    <mergeCell ref="J68:J75"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="G45:G55"/>
+    <mergeCell ref="H45:H55"/>
+    <mergeCell ref="J45:J55"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B60:B67"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J15"/>
     <mergeCell ref="A45:A55"/>
@@ -5150,92 +5273,89 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="H30:H33"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="G60:G67"/>
-    <mergeCell ref="H60:H67"/>
-    <mergeCell ref="J60:J67"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="H68:H75"/>
-    <mergeCell ref="J68:J75"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="D60:D67"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="G45:G55"/>
-    <mergeCell ref="H45:H55"/>
-    <mergeCell ref="J45:J55"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A110:A119"/>
+    <mergeCell ref="B110:B119"/>
+    <mergeCell ref="C110:C119"/>
+    <mergeCell ref="D110:D119"/>
+    <mergeCell ref="G110:G119"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="G104:G109"/>
+    <mergeCell ref="H110:H119"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G26:G29"/>
     <mergeCell ref="H76:H83"/>
-    <mergeCell ref="J76:J83"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="D84:D91"/>
-    <mergeCell ref="G84:G91"/>
-    <mergeCell ref="H84:H91"/>
-    <mergeCell ref="J84:J91"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="D76:D83"/>
-    <mergeCell ref="G76:G83"/>
-    <mergeCell ref="G104:G109"/>
-    <mergeCell ref="H104:H109"/>
-    <mergeCell ref="J104:J109"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="D104:D109"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="B92:B103"/>
-    <mergeCell ref="C92:C103"/>
-    <mergeCell ref="D92:D103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="G92:G99"/>
-    <mergeCell ref="A92:A103"/>
+    <mergeCell ref="A138:A147"/>
+    <mergeCell ref="B138:B147"/>
+    <mergeCell ref="C138:C147"/>
+    <mergeCell ref="D138:D147"/>
+    <mergeCell ref="G138:G147"/>
+    <mergeCell ref="A202:A215"/>
+    <mergeCell ref="B202:B215"/>
+    <mergeCell ref="C202:C215"/>
+    <mergeCell ref="D202:D215"/>
+    <mergeCell ref="F202:F215"/>
+    <mergeCell ref="G202:G215"/>
     <mergeCell ref="A148:A159"/>
     <mergeCell ref="B148:B159"/>
     <mergeCell ref="C148:C159"/>
     <mergeCell ref="D148:D159"/>
     <mergeCell ref="F148:F159"/>
     <mergeCell ref="G148:G159"/>
-    <mergeCell ref="H148:H159"/>
-    <mergeCell ref="J148:J159"/>
-    <mergeCell ref="A120:A129"/>
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="C120:C129"/>
-    <mergeCell ref="D120:D129"/>
-    <mergeCell ref="G120:G129"/>
-    <mergeCell ref="H120:H129"/>
-    <mergeCell ref="J120:J129"/>
-    <mergeCell ref="A130:A137"/>
-    <mergeCell ref="B130:B137"/>
-    <mergeCell ref="C130:C137"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="G130:G137"/>
-    <mergeCell ref="H130:H137"/>
-    <mergeCell ref="J130:J137"/>
-    <mergeCell ref="H138:H147"/>
-    <mergeCell ref="J138:J147"/>
     <mergeCell ref="C170:C179"/>
     <mergeCell ref="D170:D179"/>
     <mergeCell ref="F170:F179"/>
     <mergeCell ref="G170:G179"/>
-    <mergeCell ref="H170:H179"/>
-    <mergeCell ref="J170:J179"/>
     <mergeCell ref="A194:A201"/>
     <mergeCell ref="B194:B201"/>
     <mergeCell ref="C194:C201"/>
+    <mergeCell ref="H202:H215"/>
+    <mergeCell ref="J202:J215"/>
+    <mergeCell ref="A160:A169"/>
+    <mergeCell ref="B160:B169"/>
+    <mergeCell ref="C160:C169"/>
+    <mergeCell ref="D160:D169"/>
+    <mergeCell ref="F160:F169"/>
+    <mergeCell ref="G160:G169"/>
+    <mergeCell ref="H160:H169"/>
+    <mergeCell ref="J160:J169"/>
+    <mergeCell ref="A170:A179"/>
+    <mergeCell ref="B170:B179"/>
+    <mergeCell ref="H170:H179"/>
+    <mergeCell ref="J170:J179"/>
     <mergeCell ref="D194:D201"/>
     <mergeCell ref="F194:F201"/>
     <mergeCell ref="G194:G201"/>
@@ -5246,38 +5366,6 @@
     <mergeCell ref="C180:C193"/>
     <mergeCell ref="D180:D193"/>
     <mergeCell ref="F180:F193"/>
-    <mergeCell ref="G180:G193"/>
-    <mergeCell ref="H180:H193"/>
-    <mergeCell ref="J180:J193"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I34:I44"/>
-    <mergeCell ref="I45:I55"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="I60:I67"/>
-    <mergeCell ref="I68:I75"/>
-    <mergeCell ref="I76:I83"/>
-    <mergeCell ref="I84:I91"/>
-    <mergeCell ref="I92:I103"/>
-    <mergeCell ref="J92:J103"/>
-    <mergeCell ref="I104:I109"/>
-    <mergeCell ref="I110:I119"/>
-    <mergeCell ref="J110:J119"/>
-    <mergeCell ref="J56:J59"/>
-    <mergeCell ref="I202:I215"/>
-    <mergeCell ref="I120:I129"/>
-    <mergeCell ref="I130:I137"/>
-    <mergeCell ref="I138:I147"/>
-    <mergeCell ref="I148:I159"/>
-    <mergeCell ref="I160:I169"/>
-    <mergeCell ref="I170:I179"/>
-    <mergeCell ref="I180:I193"/>
-    <mergeCell ref="I194:I201"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
